--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書_B19999P_共通エラー応答電文_(JSON).xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書_B19999P_共通エラー応答電文_(JSON).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65213C23-6FA2-40D7-988B-4D1E375321BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="45" windowWidth="16080" windowHeight="12660" tabRatio="641" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" r:id="rId1"/>
@@ -12,29 +13,37 @@
     <sheet name="目次" sheetId="62" r:id="rId3"/>
     <sheet name="1. 外部インタフェース仕様" sheetId="51" r:id="rId4"/>
     <sheet name="2. レコード構成" sheetId="52" r:id="rId5"/>
-    <sheet name="エラー" sheetId="61" r:id="rId6"/>
+    <sheet name="3.1. エラー" sheetId="61" r:id="rId6"/>
     <sheet name="データ" sheetId="54" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 外部インタフェース仕様'!$A$1:$AI$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. レコード構成'!$A$1:$AI$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">エラー!$A$1:$AL$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1. エラー'!$A$1:$AL$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. 外部インタフェース仕様'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. レコード構成'!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">エラー!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'3.1. エラー'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
     <definedName name="データ型">データ!$A$2:$A$17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
   </si>
@@ -501,16 +510,6 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>2. レコード構成</t>
     <rPh sb="7" eb="9">
       <t>コウセイ</t>
@@ -775,10 +774,6 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>messages</t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
     <t>3.1. エラー</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -791,19 +786,65 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>fault_code</t>
+    <t>faultCode</t>
     <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>messages</t>
+  </si>
+  <si>
+    <t>3. データレイアウト</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>1.1版</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>3.1. エラー</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>・物理項目名をスネークケースからキャメルケースに変更</t>
+    <rPh sb="1" eb="6">
+      <t>ブツリコウモクメイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -963,6 +1004,13 @@
       <sz val="10"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1568,7 +1616,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="474">
+  <cellXfs count="483">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2229,6 +2277,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2930,26 +2991,41 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
-    <cellStyle name="パーセント 2" xfId="2"/>
+    <cellStyle name="パーセント 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="8"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 2 13" xfId="9"/>
-    <cellStyle name="標準 2 3" xfId="10"/>
-    <cellStyle name="標準_~6362950" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="5"/>
-    <cellStyle name="標準_画面標準定義" xfId="6"/>
+    <cellStyle name="標準 10" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 2 13" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準_~6362950" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準_画面標準" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3088,7 +3164,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="87084" name="Group 7"/>
+        <xdr:cNvPr id="87084" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C540100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3103,7 +3185,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 4"/>
+          <xdr:cNvPr id="3" name="Text Box 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3197,7 +3285,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87087" name="Line 5"/>
+          <xdr:cNvPr id="87087" name="Line 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F540100}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3246,7 +3340,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Text Box 9"/>
+        <xdr:cNvPr id="6" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3425,11 +3525,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73729"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3437,6 +3540,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -3485,11 +3611,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73730"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3497,6 +3626,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -3545,11 +3697,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73731"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3557,6 +3712,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -3605,11 +3783,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73732"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3617,6 +3798,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -3665,11 +3869,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73733"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3677,6 +3884,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -3725,11 +3955,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73734"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3737,6 +3970,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -3785,11 +4041,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73735"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3797,6 +4056,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -3845,11 +4127,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73736"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3857,6 +4142,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -3905,11 +4213,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73737"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3917,6 +4228,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -3965,11 +4299,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73738"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3977,6 +4314,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4025,11 +4385,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73739"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4037,6 +4400,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4085,11 +4471,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73740"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4097,6 +4486,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4145,11 +4557,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73741"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4157,6 +4572,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4205,11 +4643,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73742"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4217,6 +4658,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4265,11 +4729,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73743"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4277,6 +4744,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4325,11 +4815,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73744"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4337,6 +4830,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4385,11 +4901,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73745"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4397,6 +4916,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4445,11 +4987,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73746"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4457,6 +5002,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4505,11 +5073,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73747"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4517,6 +5088,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4565,11 +5159,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73748"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4577,6 +5174,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4625,11 +5245,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73749"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4637,6 +5260,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4685,11 +5331,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73750"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4697,6 +5346,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4745,11 +5417,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73751"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4757,6 +5432,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4805,11 +5503,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73752"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4817,6 +5518,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4865,11 +5589,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73753"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4877,6 +5604,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4925,11 +5675,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73754"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4937,6 +5690,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -4985,11 +5761,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73755"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4997,6 +5776,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -5045,11 +5847,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73772"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5057,6 +5862,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -5105,11 +5933,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s73773"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D200100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5117,6 +5948,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -5152,18 +6006,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5222,7 +6082,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>    "fault_code": "FB10100301",</a:t>
+            <a:t>    "faultCode": "FB10100301",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5398,13 +6258,19 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="819150" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5826,20 +6692,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z512"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="S1" s="73"/>
@@ -5851,29 +6717,29 @@
       <c r="Y1" s="73"/>
       <c r="Z1" s="73"/>
     </row>
-    <row r="2" spans="1:26" ht="19.5" customHeight="1">
+    <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="17" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="18" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="19" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="20" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="21" spans="2:19" ht="9" customHeight="1"/>
-    <row r="22" spans="2:19" ht="17.25" customHeight="1">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
       <c r="D22" s="53"/>
@@ -5891,18 +6757,18 @@
       <c r="R22" s="53"/>
       <c r="S22" s="53"/>
     </row>
-    <row r="23" spans="2:19" ht="15.95" customHeight="1">
+    <row r="23" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="83"/>
       <c r="J23" s="84" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="K23" s="83"/>
       <c r="L23" s="83"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1">
+    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
@@ -5922,19 +6788,19 @@
       <c r="R24" s="54"/>
       <c r="S24" s="54"/>
     </row>
-    <row r="25" spans="2:19" ht="13.5" customHeight="1">
+    <row r="25" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="240">
+      <c r="I25" s="245">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43718</v>
-      </c>
-      <c r="J25" s="240"/>
-      <c r="K25" s="240"/>
+        <v>44825</v>
+      </c>
+      <c r="J25" s="245"/>
+      <c r="K25" s="245"/>
       <c r="L25" s="83"/>
     </row>
-    <row r="26" spans="2:19" ht="13.5" customHeight="1">
+    <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -5943,7 +6809,7 @@
       <c r="K26" s="83"/>
       <c r="L26" s="83"/>
     </row>
-    <row r="27" spans="2:19" ht="13.5" customHeight="1">
+    <row r="27" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -5952,7 +6818,7 @@
       <c r="K27" s="83"/>
       <c r="L27" s="83"/>
     </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1">
+    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="83"/>
@@ -5960,7 +6826,7 @@
       <c r="K28" s="83"/>
       <c r="L28" s="83"/>
     </row>
-    <row r="29" spans="2:19" ht="13.5" customHeight="1">
+    <row r="29" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="6"/>
       <c r="G29" s="8"/>
       <c r="H29" s="6"/>
@@ -5969,7 +6835,7 @@
       <c r="K29" s="83"/>
       <c r="L29" s="83"/>
     </row>
-    <row r="30" spans="2:19" ht="18.75" customHeight="1">
+    <row r="30" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
       <c r="H30" s="6"/>
@@ -5978,7 +6844,7 @@
       <c r="K30" s="83"/>
       <c r="L30" s="83"/>
     </row>
-    <row r="31" spans="2:19" ht="13.5" customHeight="1">
+    <row r="31" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
       <c r="H31" s="6"/>
@@ -5987,7 +6853,7 @@
       <c r="K31" s="83"/>
       <c r="L31" s="83"/>
     </row>
-    <row r="32" spans="2:19" ht="18.75" customHeight="1">
+    <row r="32" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="83"/>
@@ -6002,7 +6868,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" customHeight="1">
+    <row r="33" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="83"/>
@@ -6016,7 +6882,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" customHeight="1">
+    <row r="34" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I34" s="83"/>
       <c r="J34" s="85"/>
       <c r="K34" s="83"/>
@@ -6026,509 +6892,509 @@
       <c r="R34" s="139"/>
       <c r="S34" s="139"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P35" s="11"/>
       <c r="Q35" s="139"/>
       <c r="R35" s="139"/>
       <c r="S35" s="139"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P36" s="11"/>
       <c r="Q36" s="139"/>
       <c r="R36" s="139"/>
       <c r="S36" s="137"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P37" s="11"/>
       <c r="Q37" s="140"/>
       <c r="R37" s="140"/>
       <c r="S37" s="140"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P38" s="11"/>
       <c r="Q38" s="140"/>
       <c r="R38" s="140"/>
       <c r="S38" s="140"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P39" s="11"/>
       <c r="Q39" s="140"/>
       <c r="R39" s="140"/>
       <c r="S39" s="140"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -6543,17 +7409,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="Q9" sqref="Q9:AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="60" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="72" customWidth="1"/>
@@ -6562,162 +7428,162 @@
     <col min="36" max="16384" width="4.83203125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="241" t="s">
+    <row r="1" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="246" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="256" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="244" t="s">
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="261" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="249" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="246"/>
-      <c r="S1" s="288" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="289"/>
-      <c r="U1" s="289"/>
-      <c r="V1" s="289"/>
-      <c r="W1" s="289"/>
-      <c r="X1" s="289"/>
-      <c r="Y1" s="289"/>
-      <c r="Z1" s="290"/>
-      <c r="AA1" s="241" t="s">
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="293" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="294"/>
+      <c r="U1" s="294"/>
+      <c r="V1" s="294"/>
+      <c r="W1" s="294"/>
+      <c r="X1" s="294"/>
+      <c r="Y1" s="294"/>
+      <c r="Z1" s="295"/>
+      <c r="AA1" s="246" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="243"/>
-      <c r="AC1" s="279" t="str">
+      <c r="AB1" s="248"/>
+      <c r="AC1" s="284" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="280"/>
-      <c r="AE1" s="280"/>
-      <c r="AF1" s="281"/>
-      <c r="AG1" s="282">
+      <c r="AD1" s="285"/>
+      <c r="AE1" s="285"/>
+      <c r="AF1" s="286"/>
+      <c r="AG1" s="287">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="283"/>
-      <c r="AI1" s="284"/>
+      <c r="AH1" s="288"/>
+      <c r="AI1" s="289"/>
       <c r="AK1" s="66"/>
       <c r="AL1" s="66"/>
       <c r="AM1" s="66"/>
       <c r="AN1" s="67"/>
     </row>
-    <row r="2" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="241" t="s">
+    <row r="2" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="246" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="256" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="247"/>
-      <c r="P2" s="248"/>
-      <c r="Q2" s="248"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="292"/>
-      <c r="U2" s="292"/>
-      <c r="V2" s="292"/>
-      <c r="W2" s="292"/>
-      <c r="X2" s="292"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="293"/>
-      <c r="AA2" s="241" t="s">
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="261" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="260"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="254"/>
+      <c r="S2" s="296"/>
+      <c r="T2" s="297"/>
+      <c r="U2" s="297"/>
+      <c r="V2" s="297"/>
+      <c r="W2" s="297"/>
+      <c r="X2" s="297"/>
+      <c r="Y2" s="297"/>
+      <c r="Z2" s="298"/>
+      <c r="AA2" s="246" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="243"/>
-      <c r="AC2" s="285" t="str">
+      <c r="AB2" s="248"/>
+      <c r="AC2" s="290" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="286"/>
-      <c r="AE2" s="286"/>
-      <c r="AF2" s="287"/>
-      <c r="AG2" s="282" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="291"/>
+      <c r="AE2" s="291"/>
+      <c r="AF2" s="292"/>
+      <c r="AG2" s="287">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="283"/>
-      <c r="AI2" s="284"/>
+        <v>44825</v>
+      </c>
+      <c r="AH2" s="288"/>
+      <c r="AI2" s="289"/>
       <c r="AK2" s="66"/>
       <c r="AL2" s="66"/>
       <c r="AM2" s="66"/>
       <c r="AN2" s="66"/>
     </row>
-    <row r="3" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="241" t="s">
+    <row r="3" spans="1:40" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="246" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="253" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="255"/>
-      <c r="O3" s="250"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="252"/>
-      <c r="S3" s="294"/>
-      <c r="T3" s="295"/>
-      <c r="U3" s="295"/>
-      <c r="V3" s="295"/>
-      <c r="W3" s="295"/>
-      <c r="X3" s="295"/>
-      <c r="Y3" s="295"/>
-      <c r="Z3" s="296"/>
-      <c r="AA3" s="241"/>
-      <c r="AB3" s="243"/>
-      <c r="AC3" s="279"/>
-      <c r="AD3" s="280"/>
-      <c r="AE3" s="280"/>
-      <c r="AF3" s="281"/>
-      <c r="AG3" s="282"/>
-      <c r="AH3" s="283"/>
-      <c r="AI3" s="284"/>
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="258" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="299"/>
+      <c r="T3" s="300"/>
+      <c r="U3" s="300"/>
+      <c r="V3" s="300"/>
+      <c r="W3" s="300"/>
+      <c r="X3" s="300"/>
+      <c r="Y3" s="300"/>
+      <c r="Z3" s="301"/>
+      <c r="AA3" s="246"/>
+      <c r="AB3" s="248"/>
+      <c r="AC3" s="284"/>
+      <c r="AD3" s="285"/>
+      <c r="AE3" s="285"/>
+      <c r="AF3" s="286"/>
+      <c r="AG3" s="287"/>
+      <c r="AH3" s="288"/>
+      <c r="AI3" s="289"/>
       <c r="AK3" s="66"/>
       <c r="AL3" s="66"/>
       <c r="AM3" s="66"/>
       <c r="AN3" s="66"/>
     </row>
-    <row r="4" spans="1:40" s="68" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:40" s="68" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AB4" s="69"/>
       <c r="AC4" s="69"/>
       <c r="AD4" s="70"/>
@@ -6728,7 +7594,7 @@
       <c r="AI4" s="69"/>
       <c r="AJ4" s="69"/>
     </row>
-    <row r="5" spans="1:40" s="68" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="68" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="2" t="s">
         <v>0</v>
       </c>
@@ -6742,7 +7608,7 @@
       <c r="AI5" s="69"/>
       <c r="AJ5" s="69"/>
     </row>
-    <row r="6" spans="1:40" s="68" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="2"/>
       <c r="AB6" s="69"/>
       <c r="AC6" s="69"/>
@@ -6754,297 +7620,311 @@
       <c r="AI6" s="69"/>
       <c r="AJ6" s="69"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="266" t="s">
+      <c r="B7" s="271" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="268"/>
-      <c r="D7" s="266" t="s">
+      <c r="C7" s="273"/>
+      <c r="D7" s="271" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="267"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="266" t="s">
+      <c r="E7" s="272"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="267"/>
-      <c r="I7" s="268"/>
-      <c r="J7" s="278" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="267"/>
-      <c r="L7" s="267"/>
-      <c r="M7" s="267"/>
-      <c r="N7" s="267"/>
-      <c r="O7" s="267"/>
-      <c r="P7" s="268"/>
-      <c r="Q7" s="266" t="s">
+      <c r="H7" s="272"/>
+      <c r="I7" s="273"/>
+      <c r="J7" s="283" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="272"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="272"/>
+      <c r="N7" s="272"/>
+      <c r="O7" s="272"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="271" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="267"/>
-      <c r="S7" s="267"/>
-      <c r="T7" s="267"/>
-      <c r="U7" s="267"/>
-      <c r="V7" s="267"/>
-      <c r="W7" s="267"/>
-      <c r="X7" s="267"/>
-      <c r="Y7" s="267"/>
-      <c r="Z7" s="267"/>
-      <c r="AA7" s="267"/>
-      <c r="AB7" s="267"/>
-      <c r="AC7" s="267"/>
-      <c r="AD7" s="267"/>
-      <c r="AE7" s="268"/>
-      <c r="AF7" s="266" t="s">
+      <c r="R7" s="272"/>
+      <c r="S7" s="272"/>
+      <c r="T7" s="272"/>
+      <c r="U7" s="272"/>
+      <c r="V7" s="272"/>
+      <c r="W7" s="272"/>
+      <c r="X7" s="272"/>
+      <c r="Y7" s="272"/>
+      <c r="Z7" s="272"/>
+      <c r="AA7" s="272"/>
+      <c r="AB7" s="272"/>
+      <c r="AC7" s="272"/>
+      <c r="AD7" s="272"/>
+      <c r="AE7" s="273"/>
+      <c r="AF7" s="271" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="267"/>
-      <c r="AH7" s="267"/>
-      <c r="AI7" s="268"/>
+      <c r="AG7" s="272"/>
+      <c r="AH7" s="272"/>
+      <c r="AI7" s="273"/>
       <c r="AJ7" s="59"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="167">
         <v>1</v>
       </c>
-      <c r="B8" s="269" t="s">
+      <c r="B8" s="480" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="275"/>
+      <c r="D8" s="276">
+        <v>43718</v>
+      </c>
+      <c r="E8" s="277"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="274" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="270"/>
-      <c r="D8" s="271">
-        <v>43718</v>
-      </c>
-      <c r="E8" s="272"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="269" t="s">
+      <c r="H8" s="279"/>
+      <c r="I8" s="275"/>
+      <c r="J8" s="280" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="274"/>
-      <c r="I8" s="270"/>
-      <c r="J8" s="275" t="s">
+      <c r="K8" s="281"/>
+      <c r="L8" s="281"/>
+      <c r="M8" s="281"/>
+      <c r="N8" s="281"/>
+      <c r="O8" s="281"/>
+      <c r="P8" s="282"/>
+      <c r="Q8" s="280" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="276"/>
-      <c r="L8" s="276"/>
-      <c r="M8" s="276"/>
-      <c r="N8" s="276"/>
-      <c r="O8" s="276"/>
-      <c r="P8" s="277"/>
-      <c r="Q8" s="275" t="s">
+      <c r="R8" s="281"/>
+      <c r="S8" s="281"/>
+      <c r="T8" s="281"/>
+      <c r="U8" s="281"/>
+      <c r="V8" s="281"/>
+      <c r="W8" s="281"/>
+      <c r="X8" s="281"/>
+      <c r="Y8" s="281"/>
+      <c r="Z8" s="281"/>
+      <c r="AA8" s="281"/>
+      <c r="AB8" s="281"/>
+      <c r="AC8" s="281"/>
+      <c r="AD8" s="281"/>
+      <c r="AE8" s="282"/>
+      <c r="AF8" s="131" t="s">
         <v>88</v>
-      </c>
-      <c r="R8" s="276"/>
-      <c r="S8" s="276"/>
-      <c r="T8" s="276"/>
-      <c r="U8" s="276"/>
-      <c r="V8" s="276"/>
-      <c r="W8" s="276"/>
-      <c r="X8" s="276"/>
-      <c r="Y8" s="276"/>
-      <c r="Z8" s="276"/>
-      <c r="AA8" s="276"/>
-      <c r="AB8" s="276"/>
-      <c r="AC8" s="276"/>
-      <c r="AD8" s="276"/>
-      <c r="AE8" s="277"/>
-      <c r="AF8" s="131" t="s">
-        <v>89</v>
       </c>
       <c r="AG8" s="63"/>
       <c r="AH8" s="63"/>
       <c r="AI8" s="64"/>
       <c r="AJ8" s="59"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1">
-      <c r="A9" s="168"/>
-      <c r="B9" s="257"/>
-      <c r="C9" s="258"/>
-      <c r="D9" s="259"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="262"/>
-      <c r="I9" s="258"/>
-      <c r="J9" s="263"/>
-      <c r="K9" s="264"/>
-      <c r="L9" s="264"/>
-      <c r="M9" s="264"/>
-      <c r="N9" s="264"/>
-      <c r="O9" s="264"/>
-      <c r="P9" s="265"/>
-      <c r="Q9" s="263"/>
-      <c r="R9" s="264"/>
-      <c r="S9" s="264"/>
-      <c r="T9" s="264"/>
-      <c r="U9" s="264"/>
-      <c r="V9" s="264"/>
-      <c r="W9" s="264"/>
-      <c r="X9" s="264"/>
-      <c r="Y9" s="264"/>
-      <c r="Z9" s="264"/>
-      <c r="AA9" s="264"/>
-      <c r="AB9" s="264"/>
-      <c r="AC9" s="264"/>
-      <c r="AD9" s="264"/>
-      <c r="AE9" s="265"/>
-      <c r="AF9" s="62"/>
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="168">
+        <v>2</v>
+      </c>
+      <c r="B9" s="481" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="263"/>
+      <c r="D9" s="264">
+        <v>44825</v>
+      </c>
+      <c r="E9" s="265"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="481" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="267"/>
+      <c r="I9" s="263"/>
+      <c r="J9" s="482" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="269"/>
+      <c r="L9" s="269"/>
+      <c r="M9" s="269"/>
+      <c r="N9" s="269"/>
+      <c r="O9" s="269"/>
+      <c r="P9" s="270"/>
+      <c r="Q9" s="482" t="s">
+        <v>119</v>
+      </c>
+      <c r="R9" s="269"/>
+      <c r="S9" s="269"/>
+      <c r="T9" s="269"/>
+      <c r="U9" s="269"/>
+      <c r="V9" s="269"/>
+      <c r="W9" s="269"/>
+      <c r="X9" s="269"/>
+      <c r="Y9" s="269"/>
+      <c r="Z9" s="269"/>
+      <c r="AA9" s="269"/>
+      <c r="AB9" s="269"/>
+      <c r="AC9" s="269"/>
+      <c r="AD9" s="269"/>
+      <c r="AE9" s="270"/>
+      <c r="AF9" s="243" t="s">
+        <v>120</v>
+      </c>
       <c r="AG9" s="128"/>
       <c r="AH9" s="128"/>
       <c r="AI9" s="129"/>
       <c r="AJ9" s="12"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1">
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="168"/>
-      <c r="B10" s="257"/>
-      <c r="C10" s="258"/>
-      <c r="D10" s="259"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="261"/>
-      <c r="G10" s="257"/>
-      <c r="H10" s="262"/>
-      <c r="I10" s="258"/>
-      <c r="J10" s="263"/>
-      <c r="K10" s="264"/>
-      <c r="L10" s="264"/>
-      <c r="M10" s="264"/>
-      <c r="N10" s="264"/>
-      <c r="O10" s="264"/>
-      <c r="P10" s="265"/>
-      <c r="Q10" s="263"/>
-      <c r="R10" s="264"/>
-      <c r="S10" s="264"/>
-      <c r="T10" s="264"/>
-      <c r="U10" s="264"/>
-      <c r="V10" s="264"/>
-      <c r="W10" s="264"/>
-      <c r="X10" s="264"/>
-      <c r="Y10" s="264"/>
-      <c r="Z10" s="264"/>
-      <c r="AA10" s="264"/>
-      <c r="AB10" s="264"/>
-      <c r="AC10" s="264"/>
-      <c r="AD10" s="264"/>
-      <c r="AE10" s="265"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="263"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="265"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="262"/>
+      <c r="H10" s="267"/>
+      <c r="I10" s="263"/>
+      <c r="J10" s="268"/>
+      <c r="K10" s="269"/>
+      <c r="L10" s="269"/>
+      <c r="M10" s="269"/>
+      <c r="N10" s="269"/>
+      <c r="O10" s="269"/>
+      <c r="P10" s="270"/>
+      <c r="Q10" s="268"/>
+      <c r="R10" s="269"/>
+      <c r="S10" s="269"/>
+      <c r="T10" s="269"/>
+      <c r="U10" s="269"/>
+      <c r="V10" s="269"/>
+      <c r="W10" s="269"/>
+      <c r="X10" s="269"/>
+      <c r="Y10" s="269"/>
+      <c r="Z10" s="269"/>
+      <c r="AA10" s="269"/>
+      <c r="AB10" s="269"/>
+      <c r="AC10" s="269"/>
+      <c r="AD10" s="269"/>
+      <c r="AE10" s="270"/>
       <c r="AF10" s="62"/>
       <c r="AG10" s="128"/>
       <c r="AH10" s="128"/>
       <c r="AI10" s="129"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1">
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="168"/>
-      <c r="B11" s="257"/>
-      <c r="C11" s="258"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="261"/>
-      <c r="G11" s="257"/>
-      <c r="H11" s="262"/>
-      <c r="I11" s="258"/>
-      <c r="J11" s="263"/>
-      <c r="K11" s="264"/>
-      <c r="L11" s="264"/>
-      <c r="M11" s="264"/>
-      <c r="N11" s="264"/>
-      <c r="O11" s="264"/>
-      <c r="P11" s="265"/>
-      <c r="Q11" s="263"/>
-      <c r="R11" s="264"/>
-      <c r="S11" s="264"/>
-      <c r="T11" s="264"/>
-      <c r="U11" s="264"/>
-      <c r="V11" s="264"/>
-      <c r="W11" s="264"/>
-      <c r="X11" s="264"/>
-      <c r="Y11" s="264"/>
-      <c r="Z11" s="264"/>
-      <c r="AA11" s="264"/>
-      <c r="AB11" s="264"/>
-      <c r="AC11" s="264"/>
-      <c r="AD11" s="264"/>
-      <c r="AE11" s="265"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="264"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="262"/>
+      <c r="H11" s="267"/>
+      <c r="I11" s="263"/>
+      <c r="J11" s="268"/>
+      <c r="K11" s="269"/>
+      <c r="L11" s="269"/>
+      <c r="M11" s="269"/>
+      <c r="N11" s="269"/>
+      <c r="O11" s="269"/>
+      <c r="P11" s="270"/>
+      <c r="Q11" s="268"/>
+      <c r="R11" s="269"/>
+      <c r="S11" s="269"/>
+      <c r="T11" s="269"/>
+      <c r="U11" s="269"/>
+      <c r="V11" s="269"/>
+      <c r="W11" s="269"/>
+      <c r="X11" s="269"/>
+      <c r="Y11" s="269"/>
+      <c r="Z11" s="269"/>
+      <c r="AA11" s="269"/>
+      <c r="AB11" s="269"/>
+      <c r="AC11" s="269"/>
+      <c r="AD11" s="269"/>
+      <c r="AE11" s="270"/>
       <c r="AF11" s="62"/>
       <c r="AG11" s="128"/>
       <c r="AH11" s="128"/>
       <c r="AI11" s="129"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1">
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="168"/>
-      <c r="B12" s="257"/>
-      <c r="C12" s="258"/>
-      <c r="D12" s="259"/>
-      <c r="E12" s="260"/>
-      <c r="F12" s="261"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="262"/>
-      <c r="I12" s="258"/>
-      <c r="J12" s="263"/>
-      <c r="K12" s="264"/>
-      <c r="L12" s="264"/>
-      <c r="M12" s="264"/>
-      <c r="N12" s="264"/>
-      <c r="O12" s="264"/>
-      <c r="P12" s="265"/>
-      <c r="Q12" s="263"/>
-      <c r="R12" s="264"/>
-      <c r="S12" s="264"/>
-      <c r="T12" s="264"/>
-      <c r="U12" s="264"/>
-      <c r="V12" s="264"/>
-      <c r="W12" s="264"/>
-      <c r="X12" s="264"/>
-      <c r="Y12" s="264"/>
-      <c r="Z12" s="264"/>
-      <c r="AA12" s="264"/>
-      <c r="AB12" s="264"/>
-      <c r="AC12" s="264"/>
-      <c r="AD12" s="264"/>
-      <c r="AE12" s="265"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="265"/>
+      <c r="F12" s="266"/>
+      <c r="G12" s="262"/>
+      <c r="H12" s="267"/>
+      <c r="I12" s="263"/>
+      <c r="J12" s="268"/>
+      <c r="K12" s="269"/>
+      <c r="L12" s="269"/>
+      <c r="M12" s="269"/>
+      <c r="N12" s="269"/>
+      <c r="O12" s="269"/>
+      <c r="P12" s="270"/>
+      <c r="Q12" s="268"/>
+      <c r="R12" s="269"/>
+      <c r="S12" s="269"/>
+      <c r="T12" s="269"/>
+      <c r="U12" s="269"/>
+      <c r="V12" s="269"/>
+      <c r="W12" s="269"/>
+      <c r="X12" s="269"/>
+      <c r="Y12" s="269"/>
+      <c r="Z12" s="269"/>
+      <c r="AA12" s="269"/>
+      <c r="AB12" s="269"/>
+      <c r="AC12" s="269"/>
+      <c r="AD12" s="269"/>
+      <c r="AE12" s="270"/>
       <c r="AF12" s="62"/>
       <c r="AG12" s="128"/>
       <c r="AH12" s="128"/>
       <c r="AI12" s="129"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1">
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="168"/>
-      <c r="B13" s="257"/>
-      <c r="C13" s="258"/>
-      <c r="D13" s="259"/>
-      <c r="E13" s="260"/>
-      <c r="F13" s="261"/>
-      <c r="G13" s="257"/>
-      <c r="H13" s="262"/>
-      <c r="I13" s="258"/>
-      <c r="J13" s="263"/>
-      <c r="K13" s="264"/>
-      <c r="L13" s="264"/>
-      <c r="M13" s="264"/>
-      <c r="N13" s="264"/>
-      <c r="O13" s="264"/>
-      <c r="P13" s="265"/>
-      <c r="Q13" s="263"/>
-      <c r="R13" s="264"/>
-      <c r="S13" s="264"/>
-      <c r="T13" s="264"/>
-      <c r="U13" s="264"/>
-      <c r="V13" s="264"/>
-      <c r="W13" s="264"/>
-      <c r="X13" s="264"/>
-      <c r="Y13" s="264"/>
-      <c r="Z13" s="264"/>
-      <c r="AA13" s="264"/>
-      <c r="AB13" s="264"/>
-      <c r="AC13" s="264"/>
-      <c r="AD13" s="264"/>
-      <c r="AE13" s="265"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="265"/>
+      <c r="F13" s="266"/>
+      <c r="G13" s="262"/>
+      <c r="H13" s="267"/>
+      <c r="I13" s="263"/>
+      <c r="J13" s="268"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="269"/>
+      <c r="M13" s="269"/>
+      <c r="N13" s="269"/>
+      <c r="O13" s="269"/>
+      <c r="P13" s="270"/>
+      <c r="Q13" s="268"/>
+      <c r="R13" s="269"/>
+      <c r="S13" s="269"/>
+      <c r="T13" s="269"/>
+      <c r="U13" s="269"/>
+      <c r="V13" s="269"/>
+      <c r="W13" s="269"/>
+      <c r="X13" s="269"/>
+      <c r="Y13" s="269"/>
+      <c r="Z13" s="269"/>
+      <c r="AA13" s="269"/>
+      <c r="AB13" s="269"/>
+      <c r="AC13" s="269"/>
+      <c r="AD13" s="269"/>
+      <c r="AE13" s="270"/>
       <c r="AF13" s="62"/>
       <c r="AG13" s="128"/>
       <c r="AH13" s="128"/>
       <c r="AI13" s="129"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1">
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="168"/>
       <c r="B14" s="110"/>
       <c r="C14" s="111"/>
@@ -7081,7 +7961,7 @@
       <c r="AH14" s="128"/>
       <c r="AI14" s="129"/>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1">
+    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="168"/>
       <c r="B15" s="110"/>
       <c r="C15" s="111"/>
@@ -7118,7 +7998,7 @@
       <c r="AH15" s="128"/>
       <c r="AI15" s="129"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1">
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="168"/>
       <c r="B16" s="110"/>
       <c r="C16" s="111"/>
@@ -7155,7 +8035,7 @@
       <c r="AH16" s="128"/>
       <c r="AI16" s="129"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="168"/>
       <c r="B17" s="110"/>
       <c r="C17" s="111"/>
@@ -7192,7 +8072,7 @@
       <c r="AH17" s="128"/>
       <c r="AI17" s="129"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="168"/>
       <c r="B18" s="110"/>
       <c r="C18" s="111"/>
@@ -7229,7 +8109,7 @@
       <c r="AH18" s="128"/>
       <c r="AI18" s="129"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="168"/>
       <c r="B19" s="110"/>
       <c r="C19" s="111"/>
@@ -7266,7 +8146,7 @@
       <c r="AH19" s="128"/>
       <c r="AI19" s="129"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="168"/>
       <c r="B20" s="110"/>
       <c r="C20" s="111"/>
@@ -7303,7 +8183,7 @@
       <c r="AH20" s="128"/>
       <c r="AI20" s="129"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="168"/>
       <c r="B21" s="110"/>
       <c r="C21" s="111"/>
@@ -7340,7 +8220,7 @@
       <c r="AH21" s="128"/>
       <c r="AI21" s="129"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="168"/>
       <c r="B22" s="110"/>
       <c r="C22" s="111"/>
@@ -7377,7 +8257,7 @@
       <c r="AH22" s="128"/>
       <c r="AI22" s="129"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="168"/>
       <c r="B23" s="110"/>
       <c r="C23" s="111"/>
@@ -7414,7 +8294,7 @@
       <c r="AH23" s="128"/>
       <c r="AI23" s="129"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="168"/>
       <c r="B24" s="110"/>
       <c r="C24" s="111"/>
@@ -7451,7 +8331,7 @@
       <c r="AH24" s="128"/>
       <c r="AI24" s="129"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="168"/>
       <c r="B25" s="110"/>
       <c r="C25" s="111"/>
@@ -7488,7 +8368,7 @@
       <c r="AH25" s="128"/>
       <c r="AI25" s="129"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="168"/>
       <c r="B26" s="110"/>
       <c r="C26" s="111"/>
@@ -7525,7 +8405,7 @@
       <c r="AH26" s="128"/>
       <c r="AI26" s="129"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="168"/>
       <c r="B27" s="110"/>
       <c r="C27" s="111"/>
@@ -7562,7 +8442,7 @@
       <c r="AH27" s="128"/>
       <c r="AI27" s="129"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="168"/>
       <c r="B28" s="110"/>
       <c r="C28" s="111"/>
@@ -7599,7 +8479,7 @@
       <c r="AH28" s="128"/>
       <c r="AI28" s="129"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="168"/>
       <c r="B29" s="110"/>
       <c r="C29" s="111"/>
@@ -7636,7 +8516,7 @@
       <c r="AH29" s="128"/>
       <c r="AI29" s="129"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="168"/>
       <c r="B30" s="110"/>
       <c r="C30" s="111"/>
@@ -7673,7 +8553,7 @@
       <c r="AH30" s="128"/>
       <c r="AI30" s="129"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="168"/>
       <c r="B31" s="110"/>
       <c r="C31" s="111"/>
@@ -7710,7 +8590,7 @@
       <c r="AH31" s="128"/>
       <c r="AI31" s="129"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="168"/>
       <c r="B32" s="110"/>
       <c r="C32" s="111"/>
@@ -7747,7 +8627,7 @@
       <c r="AH32" s="128"/>
       <c r="AI32" s="129"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="168"/>
       <c r="B33" s="110"/>
       <c r="C33" s="111"/>
@@ -7849,17 +8729,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="60" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="99" customWidth="1"/>
@@ -7994,161 +8874,161 @@
     <col min="16163" max="16384" width="4.83203125" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="300" t="s">
+    <row r="1" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="305" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="256" t="str">
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="312" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
-      <c r="R1" s="314"/>
-      <c r="S1" s="302" t="str">
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="317" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="318"/>
+      <c r="Q1" s="318"/>
+      <c r="R1" s="319"/>
+      <c r="S1" s="307" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="303"/>
-      <c r="U1" s="303"/>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
-      <c r="Z1" s="304"/>
-      <c r="AA1" s="300" t="s">
+      <c r="T1" s="308"/>
+      <c r="U1" s="308"/>
+      <c r="V1" s="308"/>
+      <c r="W1" s="308"/>
+      <c r="X1" s="308"/>
+      <c r="Y1" s="308"/>
+      <c r="Z1" s="309"/>
+      <c r="AA1" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="301"/>
-      <c r="AC1" s="279" t="str">
+      <c r="AB1" s="306"/>
+      <c r="AC1" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="280"/>
-      <c r="AE1" s="280"/>
-      <c r="AF1" s="281"/>
-      <c r="AG1" s="297">
+      <c r="AD1" s="285"/>
+      <c r="AE1" s="285"/>
+      <c r="AF1" s="286"/>
+      <c r="AG1" s="302">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="298"/>
-      <c r="AI1" s="299"/>
-    </row>
-    <row r="2" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="300" t="s">
+      <c r="AH1" s="303"/>
+      <c r="AI1" s="304"/>
+    </row>
+    <row r="2" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="305" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="311"/>
-      <c r="C2" s="311"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="256" t="str">
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
-      <c r="R2" s="317"/>
-      <c r="S2" s="305"/>
-      <c r="T2" s="306"/>
-      <c r="U2" s="306"/>
-      <c r="V2" s="306"/>
-      <c r="W2" s="306"/>
-      <c r="X2" s="306"/>
-      <c r="Y2" s="306"/>
-      <c r="Z2" s="307"/>
-      <c r="AA2" s="300" t="s">
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="260"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="321"/>
+      <c r="Q2" s="321"/>
+      <c r="R2" s="322"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="311"/>
+      <c r="W2" s="311"/>
+      <c r="X2" s="311"/>
+      <c r="Y2" s="311"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="305" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="301"/>
-      <c r="AC2" s="279" t="str">
+      <c r="AB2" s="306"/>
+      <c r="AC2" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="280"/>
-      <c r="AE2" s="280"/>
-      <c r="AF2" s="281"/>
-      <c r="AG2" s="297" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="285"/>
+      <c r="AE2" s="285"/>
+      <c r="AF2" s="286"/>
+      <c r="AG2" s="302">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="298"/>
-      <c r="AI2" s="299"/>
-    </row>
-    <row r="3" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="300" t="s">
+        <v>44825</v>
+      </c>
+      <c r="AH2" s="303"/>
+      <c r="AI2" s="304"/>
+    </row>
+    <row r="3" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="305" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="256" t="str">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="255"/>
-      <c r="O3" s="318"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="319"/>
-      <c r="R3" s="320"/>
-      <c r="S3" s="308"/>
-      <c r="T3" s="309"/>
-      <c r="U3" s="309"/>
-      <c r="V3" s="309"/>
-      <c r="W3" s="309"/>
-      <c r="X3" s="309"/>
-      <c r="Y3" s="309"/>
-      <c r="Z3" s="310"/>
-      <c r="AA3" s="300"/>
-      <c r="AB3" s="301"/>
-      <c r="AC3" s="279" t="str">
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="323"/>
+      <c r="P3" s="324"/>
+      <c r="Q3" s="324"/>
+      <c r="R3" s="325"/>
+      <c r="S3" s="313"/>
+      <c r="T3" s="314"/>
+      <c r="U3" s="314"/>
+      <c r="V3" s="314"/>
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
+      <c r="Y3" s="314"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="280"/>
-      <c r="AE3" s="280"/>
-      <c r="AF3" s="281"/>
-      <c r="AG3" s="297" t="str">
+      <c r="AD3" s="285"/>
+      <c r="AE3" s="285"/>
+      <c r="AF3" s="286"/>
+      <c r="AG3" s="302" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="298"/>
-      <c r="AI3" s="299"/>
-    </row>
-    <row r="4" spans="1:35" s="68" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="303"/>
+      <c r="AI3" s="304"/>
+    </row>
+    <row r="4" spans="1:35" s="68" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="66"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
@@ -8185,7 +9065,7 @@
       <c r="AH4" s="66"/>
       <c r="AI4" s="66"/>
     </row>
-    <row r="5" spans="1:35" s="68" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
@@ -8203,7 +9083,7 @@
       <c r="O5" s="66"/>
       <c r="P5" s="66"/>
       <c r="Q5" s="96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
@@ -8224,14 +9104,14 @@
       <c r="AH5" s="66"/>
       <c r="AI5" s="66"/>
     </row>
-    <row r="6" spans="1:35" s="68" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N6" s="169"/>
       <c r="AC6" s="170"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="171"/>
       <c r="B7" s="172" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="172"/>
       <c r="D7" s="65"/>
@@ -8267,7 +9147,7 @@
       <c r="AH7" s="175"/>
       <c r="AI7" s="176"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="171"/>
       <c r="B8" s="172"/>
       <c r="C8" s="172"/>
@@ -8304,10 +9184,10 @@
       <c r="AH8" s="178"/>
       <c r="AI8" s="176"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="171"/>
       <c r="B9" s="172" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="172"/>
       <c r="D9" s="65"/>
@@ -8343,7 +9223,7 @@
       <c r="AH9" s="179"/>
       <c r="AI9" s="171"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="171"/>
       <c r="B10" s="65"/>
       <c r="C10" s="180"/>
@@ -8380,10 +9260,10 @@
       <c r="AH10" s="175"/>
       <c r="AI10" s="176"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="171"/>
-      <c r="B11" s="180" t="s">
-        <v>98</v>
+      <c r="B11" s="239" t="s">
+        <v>97</v>
       </c>
       <c r="C11" s="180"/>
       <c r="D11" s="171"/>
@@ -8419,11 +9299,11 @@
       <c r="AH11" s="175"/>
       <c r="AI11" s="176"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="171"/>
       <c r="B12" s="180"/>
       <c r="C12" s="172" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D12" s="171"/>
       <c r="E12" s="65"/>
@@ -8458,7 +9338,7 @@
       <c r="AH12" s="175"/>
       <c r="AI12" s="176"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="171"/>
       <c r="B13" s="65"/>
       <c r="C13" s="171"/>
@@ -8495,7 +9375,7 @@
       <c r="AH13" s="175"/>
       <c r="AI13" s="176"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="171"/>
       <c r="B14" s="176"/>
       <c r="C14" s="172"/>
@@ -8532,7 +9412,7 @@
       <c r="AH14" s="175"/>
       <c r="AI14" s="176"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="171"/>
       <c r="B15" s="172"/>
       <c r="C15" s="171"/>
@@ -8569,7 +9449,7 @@
       <c r="AH15" s="175"/>
       <c r="AI15" s="176"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="171"/>
       <c r="B16" s="172"/>
       <c r="C16" s="172"/>
@@ -8606,7 +9486,7 @@
       <c r="AH16" s="175"/>
       <c r="AI16" s="176"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="171"/>
       <c r="B17" s="68"/>
       <c r="C17" s="172"/>
@@ -8643,7 +9523,7 @@
       <c r="AH17" s="175"/>
       <c r="AI17" s="176"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="171"/>
       <c r="B18" s="68"/>
       <c r="C18" s="171"/>
@@ -8680,7 +9560,7 @@
       <c r="AH18" s="175"/>
       <c r="AI18" s="176"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="171"/>
       <c r="B19" s="68"/>
       <c r="C19" s="171"/>
@@ -8717,7 +9597,7 @@
       <c r="AH19" s="175"/>
       <c r="AI19" s="176"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="171"/>
       <c r="B20" s="68"/>
       <c r="C20" s="171"/>
@@ -8754,7 +9634,7 @@
       <c r="AH20" s="175"/>
       <c r="AI20" s="176"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="171"/>
       <c r="B21" s="68"/>
       <c r="C21" s="171"/>
@@ -8791,7 +9671,7 @@
       <c r="AH21" s="175"/>
       <c r="AI21" s="176"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="171"/>
       <c r="B22" s="68"/>
       <c r="C22" s="171"/>
@@ -8828,7 +9708,7 @@
       <c r="AH22" s="175"/>
       <c r="AI22" s="176"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="171"/>
       <c r="B23" s="181"/>
       <c r="C23" s="65"/>
@@ -8865,7 +9745,7 @@
       <c r="AH23" s="175"/>
       <c r="AI23" s="176"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="171"/>
       <c r="B24" s="68"/>
       <c r="C24" s="171"/>
@@ -8902,7 +9782,7 @@
       <c r="AH24" s="175"/>
       <c r="AI24" s="176"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="171"/>
       <c r="B25" s="68"/>
       <c r="C25" s="171"/>
@@ -8939,7 +9819,7 @@
       <c r="AH25" s="175"/>
       <c r="AI25" s="176"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="171"/>
       <c r="B26" s="68"/>
       <c r="C26" s="171"/>
@@ -8976,7 +9856,7 @@
       <c r="AH26" s="175"/>
       <c r="AI26" s="176"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="171"/>
       <c r="B27" s="68"/>
       <c r="C27" s="171"/>
@@ -9013,7 +9893,7 @@
       <c r="AH27" s="175"/>
       <c r="AI27" s="176"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="171"/>
       <c r="B28" s="68"/>
       <c r="C28" s="171"/>
@@ -9050,7 +9930,7 @@
       <c r="AH28" s="175"/>
       <c r="AI28" s="176"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="171"/>
       <c r="B29" s="68"/>
       <c r="C29" s="171"/>
@@ -9087,7 +9967,7 @@
       <c r="AH29" s="175"/>
       <c r="AI29" s="176"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="180"/>
       <c r="B30" s="68"/>
       <c r="C30" s="68"/>
@@ -9124,7 +10004,7 @@
       <c r="AH30" s="184"/>
       <c r="AI30" s="185"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="180"/>
       <c r="B31" s="68"/>
       <c r="C31" s="170"/>
@@ -9161,7 +10041,7 @@
       <c r="AH31" s="184"/>
       <c r="AI31" s="185"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="180"/>
       <c r="B32" s="188"/>
       <c r="C32" s="171"/>
@@ -9198,7 +10078,7 @@
       <c r="AH32" s="184"/>
       <c r="AI32" s="185"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="180"/>
       <c r="B33" s="188"/>
       <c r="C33" s="171"/>
@@ -9235,7 +10115,7 @@
       <c r="AH33" s="184"/>
       <c r="AI33" s="185"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="180"/>
       <c r="B34" s="188"/>
       <c r="C34" s="171"/>
@@ -9272,7 +10152,7 @@
       <c r="AH34" s="184"/>
       <c r="AI34" s="185"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="180"/>
       <c r="B35" s="188"/>
       <c r="C35" s="171"/>
@@ -9309,7 +10189,7 @@
       <c r="AH35" s="184"/>
       <c r="AI35" s="185"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="180"/>
       <c r="B36" s="180"/>
       <c r="C36" s="180"/>
@@ -9346,7 +10226,7 @@
       <c r="AH36" s="193"/>
       <c r="AI36" s="180"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="97"/>
       <c r="E37" s="97"/>
       <c r="F37" s="97"/>
@@ -9378,7 +10258,7 @@
       <c r="AH37" s="104"/>
       <c r="AI37" s="100"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="100"/>
       <c r="T38" s="100"/>
       <c r="U38" s="101"/>
@@ -9397,7 +10277,7 @@
       <c r="AH38" s="107"/>
       <c r="AI38" s="100"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="108"/>
       <c r="S39" s="100"/>
       <c r="T39" s="101"/>
@@ -9417,7 +10297,7 @@
       <c r="AH39" s="107"/>
       <c r="AI39" s="100"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="100"/>
       <c r="T40" s="100"/>
       <c r="U40" s="100"/>
@@ -9436,7 +10316,7 @@
       <c r="AH40" s="107"/>
       <c r="AI40" s="100"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="97"/>
       <c r="K41" s="97"/>
       <c r="L41" s="97"/>
@@ -9450,37 +10330,37 @@
       <c r="AH41" s="107"/>
       <c r="AI41" s="100"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="100"/>
       <c r="AF42" s="105"/>
       <c r="AG42" s="106"/>
       <c r="AH42" s="107"/>
       <c r="AI42" s="100"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="100"/>
       <c r="AF43" s="105"/>
       <c r="AG43" s="105"/>
       <c r="AH43" s="107"/>
       <c r="AI43" s="100"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="97"/>
       <c r="AF44" s="109"/>
       <c r="AG44" s="109"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="97"/>
       <c r="AG45" s="109"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="109"/>
       <c r="AG46" s="109"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="109"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="97"/>
       <c r="T48" s="97"/>
       <c r="V48" s="97"/>
@@ -9493,7 +10373,7 @@
       <c r="AC48" s="97"/>
       <c r="AD48" s="97"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="97"/>
       <c r="S49" s="97"/>
       <c r="T49" s="97"/>
@@ -9508,10 +10388,10 @@
       <c r="AD49" s="97"/>
       <c r="AG49" s="109"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="97"/>
     </row>
-    <row r="51" spans="1:34" s="97" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="60"/>
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
@@ -9544,7 +10424,7 @@
       <c r="AD51" s="60"/>
       <c r="AH51" s="108"/>
     </row>
-    <row r="52" spans="1:34" s="97" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="60"/>
       <c r="B52" s="60"/>
       <c r="C52" s="60"/>
@@ -9606,7 +10486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9616,166 +10496,166 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="300" t="s">
+    <row r="1" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="305" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="256" t="str">
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="312" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
-      <c r="R1" s="314"/>
-      <c r="S1" s="302" t="str">
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="317" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="318"/>
+      <c r="Q1" s="318"/>
+      <c r="R1" s="319"/>
+      <c r="S1" s="307" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="303"/>
-      <c r="U1" s="303"/>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
-      <c r="Z1" s="304"/>
-      <c r="AA1" s="300" t="s">
+      <c r="T1" s="308"/>
+      <c r="U1" s="308"/>
+      <c r="V1" s="308"/>
+      <c r="W1" s="308"/>
+      <c r="X1" s="308"/>
+      <c r="Y1" s="308"/>
+      <c r="Z1" s="309"/>
+      <c r="AA1" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="301"/>
-      <c r="AC1" s="279" t="str">
+      <c r="AB1" s="306"/>
+      <c r="AC1" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="280"/>
-      <c r="AE1" s="280"/>
-      <c r="AF1" s="281"/>
-      <c r="AG1" s="321">
+      <c r="AD1" s="285"/>
+      <c r="AE1" s="285"/>
+      <c r="AF1" s="286"/>
+      <c r="AG1" s="326">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="322"/>
-      <c r="AI1" s="323"/>
-    </row>
-    <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="300" t="s">
+      <c r="AH1" s="327"/>
+      <c r="AI1" s="328"/>
+    </row>
+    <row r="2" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="305" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="311"/>
-      <c r="C2" s="311"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="256" t="str">
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
-      <c r="R2" s="317"/>
-      <c r="S2" s="305"/>
-      <c r="T2" s="306"/>
-      <c r="U2" s="306"/>
-      <c r="V2" s="306"/>
-      <c r="W2" s="306"/>
-      <c r="X2" s="306"/>
-      <c r="Y2" s="306"/>
-      <c r="Z2" s="307"/>
-      <c r="AA2" s="300" t="s">
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="260"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="321"/>
+      <c r="Q2" s="321"/>
+      <c r="R2" s="322"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="311"/>
+      <c r="W2" s="311"/>
+      <c r="X2" s="311"/>
+      <c r="Y2" s="311"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="305" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="301"/>
-      <c r="AC2" s="279" t="str">
+      <c r="AB2" s="306"/>
+      <c r="AC2" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="280"/>
-      <c r="AE2" s="280"/>
-      <c r="AF2" s="281"/>
-      <c r="AG2" s="321" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="285"/>
+      <c r="AE2" s="285"/>
+      <c r="AF2" s="286"/>
+      <c r="AG2" s="326">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="322"/>
-      <c r="AI2" s="323"/>
-    </row>
-    <row r="3" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="300" t="s">
+        <v>44825</v>
+      </c>
+      <c r="AH2" s="327"/>
+      <c r="AI2" s="328"/>
+    </row>
+    <row r="3" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="305" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="256" t="str">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="255"/>
-      <c r="O3" s="318"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="319"/>
-      <c r="R3" s="320"/>
-      <c r="S3" s="308"/>
-      <c r="T3" s="309"/>
-      <c r="U3" s="309"/>
-      <c r="V3" s="309"/>
-      <c r="W3" s="309"/>
-      <c r="X3" s="309"/>
-      <c r="Y3" s="309"/>
-      <c r="Z3" s="310"/>
-      <c r="AA3" s="300"/>
-      <c r="AB3" s="301"/>
-      <c r="AC3" s="279" t="str">
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="323"/>
+      <c r="P3" s="324"/>
+      <c r="Q3" s="324"/>
+      <c r="R3" s="325"/>
+      <c r="S3" s="313"/>
+      <c r="T3" s="314"/>
+      <c r="U3" s="314"/>
+      <c r="V3" s="314"/>
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
+      <c r="Y3" s="314"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="280"/>
-      <c r="AE3" s="280"/>
-      <c r="AF3" s="281"/>
-      <c r="AG3" s="321" t="str">
+      <c r="AD3" s="285"/>
+      <c r="AE3" s="285"/>
+      <c r="AF3" s="286"/>
+      <c r="AG3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="322"/>
-      <c r="AI3" s="323"/>
-    </row>
-    <row r="4" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1">
+      <c r="AH3" s="327"/>
+      <c r="AI3" s="328"/>
+    </row>
+    <row r="4" spans="1:35" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="39"/>
       <c r="AD4" s="75"/>
       <c r="AE4" s="75"/>
@@ -9784,9 +10664,9 @@
       <c r="AH4" s="49"/>
       <c r="AI4" s="49"/>
     </row>
-    <row r="5" spans="1:35" s="55" customFormat="1" ht="17.25" customHeight="1">
+    <row r="5" spans="1:35" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="74"/>
       <c r="C5" s="88"/>
@@ -9823,7 +10703,7 @@
       <c r="AH5" s="74"/>
       <c r="AI5" s="74"/>
     </row>
-    <row r="6" spans="1:35" s="55" customFormat="1" ht="6" customHeight="1">
+    <row r="6" spans="1:35" s="55" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="60"/>
       <c r="B6" s="74"/>
       <c r="C6" s="88"/>
@@ -9860,13 +10740,13 @@
       <c r="AH6" s="74"/>
       <c r="AI6" s="74"/>
     </row>
-    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="324" t="s">
+    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="329" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="331"/>
-      <c r="C7" s="331"/>
-      <c r="D7" s="332"/>
+      <c r="B7" s="336"/>
+      <c r="C7" s="336"/>
+      <c r="D7" s="337"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -9879,82 +10759,82 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="351" t="s">
+      <c r="Q7" s="356" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="352"/>
-      <c r="S7" s="352"/>
-      <c r="T7" s="353"/>
-      <c r="U7" s="357" t="s">
-        <v>101</v>
-      </c>
-      <c r="V7" s="358"/>
-      <c r="W7" s="358"/>
-      <c r="X7" s="358"/>
-      <c r="Y7" s="358"/>
-      <c r="Z7" s="358"/>
-      <c r="AA7" s="358"/>
-      <c r="AB7" s="358"/>
-      <c r="AC7" s="358"/>
-      <c r="AD7" s="358"/>
-      <c r="AE7" s="358"/>
-      <c r="AF7" s="358"/>
-      <c r="AG7" s="358"/>
-      <c r="AH7" s="358"/>
-      <c r="AI7" s="359"/>
-    </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="324" t="s">
+      <c r="R7" s="357"/>
+      <c r="S7" s="357"/>
+      <c r="T7" s="358"/>
+      <c r="U7" s="362" t="s">
+        <v>100</v>
+      </c>
+      <c r="V7" s="363"/>
+      <c r="W7" s="363"/>
+      <c r="X7" s="363"/>
+      <c r="Y7" s="363"/>
+      <c r="Z7" s="363"/>
+      <c r="AA7" s="363"/>
+      <c r="AB7" s="363"/>
+      <c r="AC7" s="363"/>
+      <c r="AD7" s="363"/>
+      <c r="AE7" s="363"/>
+      <c r="AF7" s="363"/>
+      <c r="AG7" s="363"/>
+      <c r="AH7" s="363"/>
+      <c r="AI7" s="364"/>
+    </row>
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="329" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="331"/>
-      <c r="C8" s="331"/>
-      <c r="D8" s="332"/>
-      <c r="E8" s="342" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="343"/>
-      <c r="G8" s="343"/>
-      <c r="H8" s="343"/>
-      <c r="I8" s="343"/>
-      <c r="J8" s="343"/>
-      <c r="K8" s="343"/>
-      <c r="L8" s="343"/>
-      <c r="M8" s="343"/>
-      <c r="N8" s="343"/>
-      <c r="O8" s="343"/>
-      <c r="P8" s="343"/>
-      <c r="Q8" s="324" t="s">
+      <c r="B8" s="336"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="337"/>
+      <c r="E8" s="347" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="348"/>
+      <c r="G8" s="348"/>
+      <c r="H8" s="348"/>
+      <c r="I8" s="348"/>
+      <c r="J8" s="348"/>
+      <c r="K8" s="348"/>
+      <c r="L8" s="348"/>
+      <c r="M8" s="348"/>
+      <c r="N8" s="348"/>
+      <c r="O8" s="348"/>
+      <c r="P8" s="348"/>
+      <c r="Q8" s="329" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="331"/>
-      <c r="S8" s="331"/>
-      <c r="T8" s="332"/>
-      <c r="U8" s="342" t="s">
-        <v>114</v>
-      </c>
-      <c r="V8" s="343"/>
-      <c r="W8" s="343"/>
-      <c r="X8" s="343"/>
-      <c r="Y8" s="343"/>
-      <c r="Z8" s="343"/>
-      <c r="AA8" s="343"/>
-      <c r="AB8" s="343"/>
-      <c r="AC8" s="343"/>
-      <c r="AD8" s="343"/>
-      <c r="AE8" s="343"/>
-      <c r="AF8" s="343"/>
-      <c r="AG8" s="343"/>
-      <c r="AH8" s="343"/>
-      <c r="AI8" s="344"/>
-    </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="324" t="s">
+      <c r="R8" s="336"/>
+      <c r="S8" s="336"/>
+      <c r="T8" s="337"/>
+      <c r="U8" s="347" t="s">
+        <v>112</v>
+      </c>
+      <c r="V8" s="348"/>
+      <c r="W8" s="348"/>
+      <c r="X8" s="348"/>
+      <c r="Y8" s="348"/>
+      <c r="Z8" s="348"/>
+      <c r="AA8" s="348"/>
+      <c r="AB8" s="348"/>
+      <c r="AC8" s="348"/>
+      <c r="AD8" s="348"/>
+      <c r="AE8" s="348"/>
+      <c r="AF8" s="348"/>
+      <c r="AG8" s="348"/>
+      <c r="AH8" s="348"/>
+      <c r="AI8" s="349"/>
+    </row>
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="329" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="331"/>
-      <c r="C9" s="331"/>
-      <c r="D9" s="332"/>
+      <c r="B9" s="336"/>
+      <c r="C9" s="336"/>
+      <c r="D9" s="337"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -9987,10 +10867,10 @@
       <c r="AH9" s="127"/>
       <c r="AI9" s="25"/>
     </row>
-    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -10026,7 +10906,7 @@
       <c r="AH10" s="126"/>
       <c r="AI10" s="21"/>
     </row>
-    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="126"/>
       <c r="C11" s="20"/>
@@ -10063,7 +10943,7 @@
       <c r="AH11" s="126"/>
       <c r="AI11" s="21"/>
     </row>
-    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="126"/>
       <c r="C12" s="20"/>
@@ -10100,7 +10980,7 @@
       <c r="AH12" s="126"/>
       <c r="AI12" s="21"/>
     </row>
-    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="51"/>
       <c r="B13" s="125"/>
       <c r="C13" s="17" t="s">
@@ -10139,13 +11019,13 @@
       <c r="AH13" s="125"/>
       <c r="AI13" s="37"/>
     </row>
-    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="324" t="s">
+    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="329" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="325"/>
-      <c r="C14" s="325"/>
-      <c r="D14" s="326"/>
+      <c r="B14" s="330"/>
+      <c r="C14" s="330"/>
+      <c r="D14" s="331"/>
       <c r="E14" s="127"/>
       <c r="F14" s="127"/>
       <c r="G14" s="127"/>
@@ -10178,7 +11058,7 @@
       <c r="AH14" s="127"/>
       <c r="AI14" s="25"/>
     </row>
-    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28"/>
       <c r="B15" s="236"/>
       <c r="C15" s="126"/>
@@ -10215,7 +11095,7 @@
       <c r="AH15" s="126"/>
       <c r="AI15" s="21"/>
     </row>
-    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28"/>
       <c r="B16" s="236"/>
       <c r="C16" s="126"/>
@@ -10252,7 +11132,7 @@
       <c r="AH16" s="126"/>
       <c r="AI16" s="21"/>
     </row>
-    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="48"/>
       <c r="B17" s="125"/>
       <c r="C17" s="125"/>
@@ -10289,13 +11169,13 @@
       <c r="AH17" s="125"/>
       <c r="AI17" s="37"/>
     </row>
-    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="345" t="s">
+    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="350" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="346"/>
-      <c r="C18" s="346"/>
-      <c r="D18" s="347"/>
+      <c r="B18" s="351"/>
+      <c r="C18" s="351"/>
+      <c r="D18" s="352"/>
       <c r="E18" s="157"/>
       <c r="F18" s="158"/>
       <c r="G18" s="146"/>
@@ -10308,12 +11188,12 @@
       <c r="N18" s="146"/>
       <c r="O18" s="144"/>
       <c r="P18" s="146"/>
-      <c r="Q18" s="345" t="s">
+      <c r="Q18" s="350" t="s">
         <v>41</v>
       </c>
-      <c r="R18" s="346"/>
-      <c r="S18" s="346"/>
-      <c r="T18" s="347"/>
+      <c r="R18" s="351"/>
+      <c r="S18" s="351"/>
+      <c r="T18" s="352"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -10330,7 +11210,7 @@
       <c r="AH18" s="20"/>
       <c r="AI18" s="52"/>
     </row>
-    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="119"/>
       <c r="B19" s="120"/>
       <c r="C19" s="120"/>
@@ -10375,7 +11255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="122"/>
       <c r="B20" s="123"/>
       <c r="C20" s="123"/>
@@ -10412,56 +11292,56 @@
       <c r="AH20" s="20"/>
       <c r="AI20" s="21"/>
     </row>
-    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="324" t="s">
+    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="329" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="331"/>
-      <c r="C21" s="331"/>
-      <c r="D21" s="332"/>
-      <c r="E21" s="342" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="343"/>
-      <c r="G21" s="343"/>
-      <c r="H21" s="343"/>
-      <c r="I21" s="343"/>
-      <c r="J21" s="343"/>
-      <c r="K21" s="343"/>
-      <c r="L21" s="343"/>
-      <c r="M21" s="343"/>
-      <c r="N21" s="343"/>
-      <c r="O21" s="343"/>
-      <c r="P21" s="344"/>
-      <c r="Q21" s="324" t="s">
+      <c r="B21" s="336"/>
+      <c r="C21" s="336"/>
+      <c r="D21" s="337"/>
+      <c r="E21" s="347" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="348"/>
+      <c r="G21" s="348"/>
+      <c r="H21" s="348"/>
+      <c r="I21" s="348"/>
+      <c r="J21" s="348"/>
+      <c r="K21" s="348"/>
+      <c r="L21" s="348"/>
+      <c r="M21" s="348"/>
+      <c r="N21" s="348"/>
+      <c r="O21" s="348"/>
+      <c r="P21" s="349"/>
+      <c r="Q21" s="329" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="331"/>
-      <c r="S21" s="331"/>
-      <c r="T21" s="332"/>
-      <c r="U21" s="348"/>
-      <c r="V21" s="349"/>
-      <c r="W21" s="349"/>
-      <c r="X21" s="349"/>
-      <c r="Y21" s="349"/>
-      <c r="Z21" s="349"/>
-      <c r="AA21" s="349"/>
-      <c r="AB21" s="349"/>
-      <c r="AC21" s="349"/>
-      <c r="AD21" s="349"/>
-      <c r="AE21" s="349"/>
-      <c r="AF21" s="349"/>
-      <c r="AG21" s="349"/>
-      <c r="AH21" s="349"/>
-      <c r="AI21" s="350"/>
-    </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="351" t="s">
+      <c r="R21" s="336"/>
+      <c r="S21" s="336"/>
+      <c r="T21" s="337"/>
+      <c r="U21" s="353"/>
+      <c r="V21" s="354"/>
+      <c r="W21" s="354"/>
+      <c r="X21" s="354"/>
+      <c r="Y21" s="354"/>
+      <c r="Z21" s="354"/>
+      <c r="AA21" s="354"/>
+      <c r="AB21" s="354"/>
+      <c r="AC21" s="354"/>
+      <c r="AD21" s="354"/>
+      <c r="AE21" s="354"/>
+      <c r="AF21" s="354"/>
+      <c r="AG21" s="354"/>
+      <c r="AH21" s="354"/>
+      <c r="AI21" s="355"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="356" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="352"/>
-      <c r="C22" s="352"/>
-      <c r="D22" s="353"/>
+      <c r="B22" s="357"/>
+      <c r="C22" s="357"/>
+      <c r="D22" s="358"/>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="127"/>
@@ -10474,12 +11354,12 @@
       <c r="N22" s="127"/>
       <c r="O22" s="18"/>
       <c r="P22" s="127"/>
-      <c r="Q22" s="351" t="s">
+      <c r="Q22" s="356" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="352"/>
-      <c r="S22" s="352"/>
-      <c r="T22" s="353"/>
+      <c r="R22" s="357"/>
+      <c r="S22" s="357"/>
+      <c r="T22" s="358"/>
       <c r="U22" s="154"/>
       <c r="V22" s="155"/>
       <c r="W22" s="162"/>
@@ -10496,7 +11376,7 @@
       <c r="AH22" s="162"/>
       <c r="AI22" s="156"/>
     </row>
-    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="122"/>
       <c r="B23" s="123"/>
       <c r="C23" s="123"/>
@@ -10541,37 +11421,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="339" t="s">
+    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="344" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="340"/>
-      <c r="C24" s="340"/>
-      <c r="D24" s="341"/>
-      <c r="E24" s="342" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="343"/>
-      <c r="G24" s="343"/>
-      <c r="H24" s="343"/>
-      <c r="I24" s="343"/>
-      <c r="J24" s="343"/>
-      <c r="K24" s="343"/>
-      <c r="L24" s="343"/>
-      <c r="M24" s="343"/>
-      <c r="N24" s="343"/>
-      <c r="O24" s="343"/>
-      <c r="P24" s="344"/>
-      <c r="Q24" s="354" t="s">
+      <c r="B24" s="345"/>
+      <c r="C24" s="345"/>
+      <c r="D24" s="346"/>
+      <c r="E24" s="347" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="348"/>
+      <c r="G24" s="348"/>
+      <c r="H24" s="348"/>
+      <c r="I24" s="348"/>
+      <c r="J24" s="348"/>
+      <c r="K24" s="348"/>
+      <c r="L24" s="348"/>
+      <c r="M24" s="348"/>
+      <c r="N24" s="348"/>
+      <c r="O24" s="348"/>
+      <c r="P24" s="349"/>
+      <c r="Q24" s="359" t="s">
         <v>47</v>
       </c>
-      <c r="R24" s="355"/>
-      <c r="S24" s="355"/>
-      <c r="T24" s="356"/>
-      <c r="U24" s="329"/>
-      <c r="V24" s="330"/>
-      <c r="W24" s="330"/>
-      <c r="X24" s="330"/>
+      <c r="R24" s="360"/>
+      <c r="S24" s="360"/>
+      <c r="T24" s="361"/>
+      <c r="U24" s="334"/>
+      <c r="V24" s="335"/>
+      <c r="W24" s="335"/>
+      <c r="X24" s="335"/>
       <c r="Y24" s="159" t="s">
         <v>48</v>
       </c>
@@ -10586,27 +11466,27 @@
       <c r="AH24" s="159"/>
       <c r="AI24" s="161"/>
     </row>
-    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="335" t="s">
+    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="340" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="336"/>
-      <c r="C25" s="336"/>
-      <c r="D25" s="337"/>
+      <c r="B25" s="341"/>
+      <c r="C25" s="341"/>
+      <c r="D25" s="342"/>
       <c r="E25" s="23"/>
       <c r="F25" s="36"/>
       <c r="G25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="327"/>
-      <c r="I25" s="328"/>
-      <c r="J25" s="328"/>
-      <c r="K25" s="328"/>
-      <c r="L25" s="328"/>
-      <c r="M25" s="328"/>
-      <c r="N25" s="328"/>
-      <c r="O25" s="328"/>
-      <c r="P25" s="328"/>
+      <c r="H25" s="332"/>
+      <c r="I25" s="333"/>
+      <c r="J25" s="333"/>
+      <c r="K25" s="333"/>
+      <c r="L25" s="333"/>
+      <c r="M25" s="333"/>
+      <c r="N25" s="333"/>
+      <c r="O25" s="333"/>
+      <c r="P25" s="333"/>
       <c r="Q25" s="127" t="s">
         <v>7</v>
       </c>
@@ -10615,15 +11495,15 @@
       <c r="T25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="338"/>
-      <c r="V25" s="338"/>
-      <c r="W25" s="338"/>
-      <c r="X25" s="338"/>
-      <c r="Y25" s="338"/>
-      <c r="Z25" s="338"/>
-      <c r="AA25" s="338"/>
-      <c r="AB25" s="338"/>
-      <c r="AC25" s="338"/>
+      <c r="U25" s="343"/>
+      <c r="V25" s="343"/>
+      <c r="W25" s="343"/>
+      <c r="X25" s="343"/>
+      <c r="Y25" s="343"/>
+      <c r="Z25" s="343"/>
+      <c r="AA25" s="343"/>
+      <c r="AB25" s="343"/>
+      <c r="AC25" s="343"/>
       <c r="AD25" s="127" t="s">
         <v>7</v>
       </c>
@@ -10633,7 +11513,7 @@
       <c r="AH25" s="127"/>
       <c r="AI25" s="25"/>
     </row>
-    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="44"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -10643,15 +11523,15 @@
       <c r="G26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="334"/>
-      <c r="I26" s="334"/>
-      <c r="J26" s="334"/>
-      <c r="K26" s="334"/>
-      <c r="L26" s="334"/>
-      <c r="M26" s="334"/>
-      <c r="N26" s="334"/>
-      <c r="O26" s="334"/>
-      <c r="P26" s="334"/>
+      <c r="H26" s="339"/>
+      <c r="I26" s="339"/>
+      <c r="J26" s="339"/>
+      <c r="K26" s="339"/>
+      <c r="L26" s="339"/>
+      <c r="M26" s="339"/>
+      <c r="N26" s="339"/>
+      <c r="O26" s="339"/>
+      <c r="P26" s="339"/>
       <c r="Q26" s="126" t="s">
         <v>7</v>
       </c>
@@ -10660,15 +11540,15 @@
       <c r="T26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="334"/>
-      <c r="V26" s="334"/>
-      <c r="W26" s="334"/>
-      <c r="X26" s="334"/>
-      <c r="Y26" s="334"/>
-      <c r="Z26" s="334"/>
-      <c r="AA26" s="334"/>
-      <c r="AB26" s="334"/>
-      <c r="AC26" s="334"/>
+      <c r="U26" s="339"/>
+      <c r="V26" s="339"/>
+      <c r="W26" s="339"/>
+      <c r="X26" s="339"/>
+      <c r="Y26" s="339"/>
+      <c r="Z26" s="339"/>
+      <c r="AA26" s="339"/>
+      <c r="AB26" s="339"/>
+      <c r="AC26" s="339"/>
       <c r="AD26" s="126" t="s">
         <v>7</v>
       </c>
@@ -10678,7 +11558,7 @@
       <c r="AH26" s="126"/>
       <c r="AI26" s="21"/>
     </row>
-    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
@@ -10688,15 +11568,15 @@
       <c r="G27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="333"/>
-      <c r="I27" s="333"/>
-      <c r="J27" s="333"/>
-      <c r="K27" s="333"/>
-      <c r="L27" s="333"/>
-      <c r="M27" s="333"/>
-      <c r="N27" s="333"/>
-      <c r="O27" s="333"/>
-      <c r="P27" s="333"/>
+      <c r="H27" s="338"/>
+      <c r="I27" s="338"/>
+      <c r="J27" s="338"/>
+      <c r="K27" s="338"/>
+      <c r="L27" s="338"/>
+      <c r="M27" s="338"/>
+      <c r="N27" s="338"/>
+      <c r="O27" s="338"/>
+      <c r="P27" s="338"/>
       <c r="Q27" s="125" t="s">
         <v>7</v>
       </c>
@@ -10705,31 +11585,31 @@
       <c r="T27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="333"/>
-      <c r="V27" s="333"/>
-      <c r="W27" s="333"/>
-      <c r="X27" s="333"/>
-      <c r="Y27" s="333"/>
-      <c r="Z27" s="333"/>
-      <c r="AA27" s="333"/>
-      <c r="AB27" s="333"/>
-      <c r="AC27" s="333"/>
-      <c r="AD27" s="333"/>
-      <c r="AE27" s="333"/>
-      <c r="AF27" s="333"/>
-      <c r="AG27" s="333"/>
-      <c r="AH27" s="333"/>
+      <c r="U27" s="338"/>
+      <c r="V27" s="338"/>
+      <c r="W27" s="338"/>
+      <c r="X27" s="338"/>
+      <c r="Y27" s="338"/>
+      <c r="Z27" s="338"/>
+      <c r="AA27" s="338"/>
+      <c r="AB27" s="338"/>
+      <c r="AC27" s="338"/>
+      <c r="AD27" s="338"/>
+      <c r="AE27" s="338"/>
+      <c r="AF27" s="338"/>
+      <c r="AG27" s="338"/>
+      <c r="AH27" s="338"/>
       <c r="AI27" s="37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="324" t="s">
+    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="329" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="325"/>
-      <c r="C28" s="325"/>
-      <c r="D28" s="326"/>
+      <c r="B28" s="330"/>
+      <c r="C28" s="330"/>
+      <c r="D28" s="331"/>
       <c r="E28" s="127"/>
       <c r="F28" s="127"/>
       <c r="G28" s="127"/>
@@ -10762,7 +11642,7 @@
       <c r="AH28" s="127"/>
       <c r="AI28" s="25"/>
     </row>
-    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="126"/>
       <c r="C29" s="126"/>
@@ -10799,7 +11679,7 @@
       <c r="AH29" s="126"/>
       <c r="AI29" s="21"/>
     </row>
-    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="126"/>
       <c r="C30" s="126"/>
@@ -10836,7 +11716,7 @@
       <c r="AH30" s="126"/>
       <c r="AI30" s="21"/>
     </row>
-    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="48"/>
       <c r="B31" s="125"/>
       <c r="C31" s="125"/>
@@ -11579,176 +12459,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet31">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AU31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:F11"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="300" t="s">
+    <row r="1" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="305" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="256" t="str">
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="312" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
-      <c r="R1" s="314"/>
-      <c r="S1" s="302" t="str">
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="317" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="318"/>
+      <c r="Q1" s="318"/>
+      <c r="R1" s="319"/>
+      <c r="S1" s="307" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="303"/>
-      <c r="U1" s="303"/>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
-      <c r="Z1" s="304"/>
-      <c r="AA1" s="300" t="s">
+      <c r="T1" s="308"/>
+      <c r="U1" s="308"/>
+      <c r="V1" s="308"/>
+      <c r="W1" s="308"/>
+      <c r="X1" s="308"/>
+      <c r="Y1" s="308"/>
+      <c r="Z1" s="309"/>
+      <c r="AA1" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="301"/>
-      <c r="AC1" s="279" t="str">
+      <c r="AB1" s="306"/>
+      <c r="AC1" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="280"/>
-      <c r="AE1" s="280"/>
-      <c r="AF1" s="281"/>
-      <c r="AG1" s="321">
+      <c r="AD1" s="285"/>
+      <c r="AE1" s="285"/>
+      <c r="AF1" s="286"/>
+      <c r="AG1" s="326">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="322"/>
-      <c r="AI1" s="323"/>
-    </row>
-    <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="300" t="s">
+      <c r="AH1" s="327"/>
+      <c r="AI1" s="328"/>
+    </row>
+    <row r="2" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="305" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="311"/>
-      <c r="C2" s="311"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="256" t="str">
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
-      <c r="R2" s="317"/>
-      <c r="S2" s="305"/>
-      <c r="T2" s="306"/>
-      <c r="U2" s="306"/>
-      <c r="V2" s="306"/>
-      <c r="W2" s="306"/>
-      <c r="X2" s="306"/>
-      <c r="Y2" s="306"/>
-      <c r="Z2" s="307"/>
-      <c r="AA2" s="300" t="s">
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="260"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="321"/>
+      <c r="Q2" s="321"/>
+      <c r="R2" s="322"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="311"/>
+      <c r="W2" s="311"/>
+      <c r="X2" s="311"/>
+      <c r="Y2" s="311"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="305" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="301"/>
-      <c r="AC2" s="279" t="str">
+      <c r="AB2" s="306"/>
+      <c r="AC2" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="280"/>
-      <c r="AE2" s="280"/>
-      <c r="AF2" s="281"/>
-      <c r="AG2" s="321" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="285"/>
+      <c r="AE2" s="285"/>
+      <c r="AF2" s="286"/>
+      <c r="AG2" s="326">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="322"/>
-      <c r="AI2" s="323"/>
-    </row>
-    <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="300" t="s">
+        <v>44825</v>
+      </c>
+      <c r="AH2" s="327"/>
+      <c r="AI2" s="328"/>
+    </row>
+    <row r="3" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="305" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="256" t="str">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="255"/>
-      <c r="O3" s="318"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="319"/>
-      <c r="R3" s="320"/>
-      <c r="S3" s="308"/>
-      <c r="T3" s="309"/>
-      <c r="U3" s="309"/>
-      <c r="V3" s="309"/>
-      <c r="W3" s="309"/>
-      <c r="X3" s="309"/>
-      <c r="Y3" s="309"/>
-      <c r="Z3" s="310"/>
-      <c r="AA3" s="300"/>
-      <c r="AB3" s="301"/>
-      <c r="AC3" s="279" t="str">
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="323"/>
+      <c r="P3" s="324"/>
+      <c r="Q3" s="324"/>
+      <c r="R3" s="325"/>
+      <c r="S3" s="313"/>
+      <c r="T3" s="314"/>
+      <c r="U3" s="314"/>
+      <c r="V3" s="314"/>
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
+      <c r="Y3" s="314"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="280"/>
-      <c r="AE3" s="280"/>
-      <c r="AF3" s="281"/>
-      <c r="AG3" s="321" t="str">
+      <c r="AD3" s="285"/>
+      <c r="AE3" s="285"/>
+      <c r="AF3" s="286"/>
+      <c r="AG3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="322"/>
-      <c r="AI3" s="323"/>
-    </row>
-    <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
+      <c r="AH3" s="327"/>
+      <c r="AI3" s="328"/>
+    </row>
+    <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="91"/>
       <c r="B4" s="91"/>
       <c r="C4" s="91"/>
@@ -11785,7 +12665,7 @@
       <c r="AH4" s="208"/>
       <c r="AI4" s="208"/>
     </row>
-    <row r="5" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
+    <row r="5" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -11805,9 +12685,9 @@
       <c r="AI5" s="40"/>
       <c r="AJ5" s="13"/>
     </row>
-    <row r="6" spans="1:47" s="55" customFormat="1">
+    <row r="6" spans="1:47" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="74"/>
       <c r="C6" s="12"/>
@@ -11856,7 +12736,7 @@
       <c r="AT6" s="74"/>
       <c r="AU6" s="74"/>
     </row>
-    <row r="7" spans="1:47" s="55" customFormat="1">
+    <row r="7" spans="1:47" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="60"/>
       <c r="B7" s="74"/>
       <c r="C7" s="12"/>
@@ -11905,464 +12785,464 @@
       <c r="AT7" s="74"/>
       <c r="AU7" s="74"/>
     </row>
-    <row r="8" spans="1:47">
-      <c r="A8" s="426" t="s">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="A8" s="431" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="376"/>
-      <c r="C8" s="376"/>
-      <c r="D8" s="376"/>
-      <c r="E8" s="376"/>
-      <c r="F8" s="376"/>
-      <c r="G8" s="376"/>
-      <c r="H8" s="376"/>
-      <c r="I8" s="376"/>
-      <c r="J8" s="376"/>
-      <c r="K8" s="376"/>
-      <c r="L8" s="376"/>
-      <c r="M8" s="376"/>
-      <c r="N8" s="376"/>
-      <c r="O8" s="376"/>
-      <c r="P8" s="376"/>
-      <c r="Q8" s="376"/>
-      <c r="R8" s="376"/>
-      <c r="S8" s="376"/>
-      <c r="T8" s="376"/>
-      <c r="U8" s="376"/>
-      <c r="V8" s="376"/>
-      <c r="W8" s="376"/>
-      <c r="X8" s="376"/>
-      <c r="Y8" s="376"/>
-      <c r="Z8" s="376"/>
-      <c r="AA8" s="376"/>
-      <c r="AB8" s="427"/>
-      <c r="AC8" s="375" t="s">
+      <c r="B8" s="381"/>
+      <c r="C8" s="381"/>
+      <c r="D8" s="381"/>
+      <c r="E8" s="381"/>
+      <c r="F8" s="381"/>
+      <c r="G8" s="381"/>
+      <c r="H8" s="381"/>
+      <c r="I8" s="381"/>
+      <c r="J8" s="381"/>
+      <c r="K8" s="381"/>
+      <c r="L8" s="381"/>
+      <c r="M8" s="381"/>
+      <c r="N8" s="381"/>
+      <c r="O8" s="381"/>
+      <c r="P8" s="381"/>
+      <c r="Q8" s="381"/>
+      <c r="R8" s="381"/>
+      <c r="S8" s="381"/>
+      <c r="T8" s="381"/>
+      <c r="U8" s="381"/>
+      <c r="V8" s="381"/>
+      <c r="W8" s="381"/>
+      <c r="X8" s="381"/>
+      <c r="Y8" s="381"/>
+      <c r="Z8" s="381"/>
+      <c r="AA8" s="381"/>
+      <c r="AB8" s="432"/>
+      <c r="AC8" s="380" t="s">
         <v>50</v>
       </c>
-      <c r="AD8" s="376"/>
-      <c r="AE8" s="377"/>
-      <c r="AF8" s="372"/>
-      <c r="AG8" s="373"/>
-      <c r="AH8" s="373"/>
-      <c r="AI8" s="374"/>
-    </row>
-    <row r="9" spans="1:47" s="238" customFormat="1" ht="22.5" customHeight="1">
+      <c r="AD8" s="381"/>
+      <c r="AE8" s="382"/>
+      <c r="AF8" s="377"/>
+      <c r="AG8" s="378"/>
+      <c r="AH8" s="378"/>
+      <c r="AI8" s="379"/>
+    </row>
+    <row r="9" spans="1:47" s="238" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="237" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="427" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="269"/>
+      <c r="D9" s="269"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="270"/>
+      <c r="G9" s="427" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="428"/>
+      <c r="I9" s="430"/>
+      <c r="J9" s="427" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="428"/>
+      <c r="L9" s="428"/>
+      <c r="M9" s="428"/>
+      <c r="N9" s="428"/>
+      <c r="O9" s="428"/>
+      <c r="P9" s="430"/>
+      <c r="Q9" s="445" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" s="447"/>
+      <c r="S9" s="445" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="422" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="265"/>
-      <c r="G9" s="422" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="423"/>
-      <c r="I9" s="425"/>
-      <c r="J9" s="422" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="423"/>
-      <c r="L9" s="423"/>
-      <c r="M9" s="423"/>
-      <c r="N9" s="423"/>
-      <c r="O9" s="423"/>
-      <c r="P9" s="425"/>
-      <c r="Q9" s="440" t="s">
-        <v>97</v>
-      </c>
-      <c r="R9" s="442"/>
-      <c r="S9" s="440" t="s">
+      <c r="T9" s="446"/>
+      <c r="U9" s="447"/>
+      <c r="V9" s="427" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="428"/>
+      <c r="X9" s="428"/>
+      <c r="Y9" s="428"/>
+      <c r="Z9" s="428"/>
+      <c r="AA9" s="428"/>
+      <c r="AB9" s="429"/>
+      <c r="AC9" s="439" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9" s="440"/>
+      <c r="AE9" s="440"/>
+      <c r="AF9" s="440"/>
+      <c r="AG9" s="440"/>
+      <c r="AH9" s="441" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="441"/>
-      <c r="U9" s="442"/>
-      <c r="V9" s="422" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" s="423"/>
-      <c r="X9" s="423"/>
-      <c r="Y9" s="423"/>
-      <c r="Z9" s="423"/>
-      <c r="AA9" s="423"/>
-      <c r="AB9" s="424"/>
-      <c r="AC9" s="434" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD9" s="435"/>
-      <c r="AE9" s="435"/>
-      <c r="AF9" s="435"/>
-      <c r="AG9" s="435"/>
-      <c r="AH9" s="436" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI9" s="436"/>
-    </row>
-    <row r="10" spans="1:47" ht="19.5" customHeight="1">
+      <c r="AI9" s="441"/>
+    </row>
+    <row r="10" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="194">
         <v>1</v>
       </c>
-      <c r="B10" s="385" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="386"/>
-      <c r="D10" s="386"/>
-      <c r="E10" s="386"/>
-      <c r="F10" s="387"/>
-      <c r="G10" s="431"/>
-      <c r="H10" s="432"/>
-      <c r="I10" s="433"/>
-      <c r="J10" s="443"/>
-      <c r="K10" s="444"/>
-      <c r="L10" s="444"/>
-      <c r="M10" s="444"/>
-      <c r="N10" s="444"/>
-      <c r="O10" s="444"/>
-      <c r="P10" s="445"/>
-      <c r="Q10" s="394"/>
-      <c r="R10" s="396"/>
-      <c r="S10" s="394"/>
-      <c r="T10" s="395"/>
-      <c r="U10" s="396"/>
-      <c r="V10" s="437"/>
-      <c r="W10" s="438"/>
-      <c r="X10" s="438"/>
-      <c r="Y10" s="438"/>
-      <c r="Z10" s="438"/>
-      <c r="AA10" s="438"/>
-      <c r="AB10" s="439"/>
-      <c r="AC10" s="419" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD10" s="363"/>
-      <c r="AE10" s="364"/>
-      <c r="AF10" s="364"/>
-      <c r="AG10" s="365"/>
-      <c r="AH10" s="383"/>
-      <c r="AI10" s="384"/>
-    </row>
-    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="390" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="391"/>
+      <c r="D10" s="391"/>
+      <c r="E10" s="391"/>
+      <c r="F10" s="392"/>
+      <c r="G10" s="436"/>
+      <c r="H10" s="437"/>
+      <c r="I10" s="438"/>
+      <c r="J10" s="448"/>
+      <c r="K10" s="449"/>
+      <c r="L10" s="449"/>
+      <c r="M10" s="449"/>
+      <c r="N10" s="449"/>
+      <c r="O10" s="449"/>
+      <c r="P10" s="450"/>
+      <c r="Q10" s="399"/>
+      <c r="R10" s="401"/>
+      <c r="S10" s="399"/>
+      <c r="T10" s="400"/>
+      <c r="U10" s="401"/>
+      <c r="V10" s="442"/>
+      <c r="W10" s="443"/>
+      <c r="X10" s="443"/>
+      <c r="Y10" s="443"/>
+      <c r="Z10" s="443"/>
+      <c r="AA10" s="443"/>
+      <c r="AB10" s="444"/>
+      <c r="AC10" s="424" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD10" s="368"/>
+      <c r="AE10" s="369"/>
+      <c r="AF10" s="369"/>
+      <c r="AG10" s="370"/>
+      <c r="AH10" s="388"/>
+      <c r="AI10" s="389"/>
+    </row>
+    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="195">
         <v>2</v>
       </c>
-      <c r="B11" s="388"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="389"/>
-      <c r="E11" s="389"/>
-      <c r="F11" s="390"/>
-      <c r="G11" s="428"/>
-      <c r="H11" s="429"/>
-      <c r="I11" s="430"/>
-      <c r="J11" s="388"/>
-      <c r="K11" s="389"/>
-      <c r="L11" s="389"/>
-      <c r="M11" s="389"/>
-      <c r="N11" s="389"/>
-      <c r="O11" s="389"/>
-      <c r="P11" s="390"/>
-      <c r="Q11" s="397"/>
-      <c r="R11" s="399"/>
-      <c r="S11" s="397"/>
-      <c r="T11" s="398"/>
-      <c r="U11" s="399"/>
-      <c r="V11" s="380"/>
-      <c r="W11" s="381"/>
-      <c r="X11" s="381"/>
-      <c r="Y11" s="381"/>
-      <c r="Z11" s="381"/>
-      <c r="AA11" s="381"/>
-      <c r="AB11" s="382"/>
-      <c r="AC11" s="420"/>
-      <c r="AD11" s="366"/>
-      <c r="AE11" s="367"/>
-      <c r="AF11" s="367"/>
-      <c r="AG11" s="368"/>
-      <c r="AH11" s="378"/>
-      <c r="AI11" s="379"/>
-    </row>
-    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="393"/>
+      <c r="C11" s="394"/>
+      <c r="D11" s="394"/>
+      <c r="E11" s="394"/>
+      <c r="F11" s="395"/>
+      <c r="G11" s="433"/>
+      <c r="H11" s="434"/>
+      <c r="I11" s="435"/>
+      <c r="J11" s="393"/>
+      <c r="K11" s="394"/>
+      <c r="L11" s="394"/>
+      <c r="M11" s="394"/>
+      <c r="N11" s="394"/>
+      <c r="O11" s="394"/>
+      <c r="P11" s="395"/>
+      <c r="Q11" s="402"/>
+      <c r="R11" s="404"/>
+      <c r="S11" s="402"/>
+      <c r="T11" s="403"/>
+      <c r="U11" s="404"/>
+      <c r="V11" s="385"/>
+      <c r="W11" s="386"/>
+      <c r="X11" s="386"/>
+      <c r="Y11" s="386"/>
+      <c r="Z11" s="386"/>
+      <c r="AA11" s="386"/>
+      <c r="AB11" s="387"/>
+      <c r="AC11" s="425"/>
+      <c r="AD11" s="371"/>
+      <c r="AE11" s="372"/>
+      <c r="AF11" s="372"/>
+      <c r="AG11" s="373"/>
+      <c r="AH11" s="383"/>
+      <c r="AI11" s="384"/>
+    </row>
+    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="195">
         <v>3</v>
       </c>
-      <c r="B12" s="388"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="389"/>
-      <c r="E12" s="389"/>
-      <c r="F12" s="390"/>
-      <c r="G12" s="428"/>
-      <c r="H12" s="429"/>
-      <c r="I12" s="430"/>
-      <c r="J12" s="388"/>
-      <c r="K12" s="389"/>
-      <c r="L12" s="389"/>
-      <c r="M12" s="389"/>
-      <c r="N12" s="389"/>
-      <c r="O12" s="389"/>
-      <c r="P12" s="390"/>
-      <c r="Q12" s="397"/>
-      <c r="R12" s="399"/>
-      <c r="S12" s="397"/>
-      <c r="T12" s="398"/>
-      <c r="U12" s="399"/>
-      <c r="V12" s="380"/>
-      <c r="W12" s="381"/>
-      <c r="X12" s="381"/>
-      <c r="Y12" s="381"/>
-      <c r="Z12" s="381"/>
-      <c r="AA12" s="381"/>
-      <c r="AB12" s="382"/>
-      <c r="AC12" s="420"/>
-      <c r="AD12" s="369"/>
-      <c r="AE12" s="370"/>
-      <c r="AF12" s="370"/>
-      <c r="AG12" s="371"/>
-      <c r="AH12" s="378"/>
-      <c r="AI12" s="379"/>
-    </row>
-    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="393"/>
+      <c r="C12" s="394"/>
+      <c r="D12" s="394"/>
+      <c r="E12" s="394"/>
+      <c r="F12" s="395"/>
+      <c r="G12" s="433"/>
+      <c r="H12" s="434"/>
+      <c r="I12" s="435"/>
+      <c r="J12" s="393"/>
+      <c r="K12" s="394"/>
+      <c r="L12" s="394"/>
+      <c r="M12" s="394"/>
+      <c r="N12" s="394"/>
+      <c r="O12" s="394"/>
+      <c r="P12" s="395"/>
+      <c r="Q12" s="402"/>
+      <c r="R12" s="404"/>
+      <c r="S12" s="402"/>
+      <c r="T12" s="403"/>
+      <c r="U12" s="404"/>
+      <c r="V12" s="385"/>
+      <c r="W12" s="386"/>
+      <c r="X12" s="386"/>
+      <c r="Y12" s="386"/>
+      <c r="Z12" s="386"/>
+      <c r="AA12" s="386"/>
+      <c r="AB12" s="387"/>
+      <c r="AC12" s="425"/>
+      <c r="AD12" s="374"/>
+      <c r="AE12" s="375"/>
+      <c r="AF12" s="375"/>
+      <c r="AG12" s="376"/>
+      <c r="AH12" s="383"/>
+      <c r="AI12" s="384"/>
+    </row>
+    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="195">
         <v>4</v>
       </c>
-      <c r="B13" s="388"/>
-      <c r="C13" s="389"/>
-      <c r="D13" s="389"/>
-      <c r="E13" s="389"/>
-      <c r="F13" s="390"/>
-      <c r="G13" s="428"/>
-      <c r="H13" s="429"/>
-      <c r="I13" s="430"/>
-      <c r="J13" s="388"/>
-      <c r="K13" s="389"/>
-      <c r="L13" s="389"/>
-      <c r="M13" s="389"/>
-      <c r="N13" s="389"/>
-      <c r="O13" s="389"/>
-      <c r="P13" s="390"/>
-      <c r="Q13" s="397"/>
-      <c r="R13" s="399"/>
-      <c r="S13" s="397"/>
-      <c r="T13" s="398"/>
-      <c r="U13" s="399"/>
-      <c r="V13" s="380"/>
-      <c r="W13" s="381"/>
-      <c r="X13" s="381"/>
-      <c r="Y13" s="381"/>
-      <c r="Z13" s="381"/>
-      <c r="AA13" s="381"/>
-      <c r="AB13" s="382"/>
-      <c r="AC13" s="420"/>
-      <c r="AD13" s="369"/>
-      <c r="AE13" s="370"/>
-      <c r="AF13" s="370"/>
-      <c r="AG13" s="371"/>
-      <c r="AH13" s="378"/>
-      <c r="AI13" s="379"/>
-    </row>
-    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="393"/>
+      <c r="C13" s="394"/>
+      <c r="D13" s="394"/>
+      <c r="E13" s="394"/>
+      <c r="F13" s="395"/>
+      <c r="G13" s="433"/>
+      <c r="H13" s="434"/>
+      <c r="I13" s="435"/>
+      <c r="J13" s="393"/>
+      <c r="K13" s="394"/>
+      <c r="L13" s="394"/>
+      <c r="M13" s="394"/>
+      <c r="N13" s="394"/>
+      <c r="O13" s="394"/>
+      <c r="P13" s="395"/>
+      <c r="Q13" s="402"/>
+      <c r="R13" s="404"/>
+      <c r="S13" s="402"/>
+      <c r="T13" s="403"/>
+      <c r="U13" s="404"/>
+      <c r="V13" s="385"/>
+      <c r="W13" s="386"/>
+      <c r="X13" s="386"/>
+      <c r="Y13" s="386"/>
+      <c r="Z13" s="386"/>
+      <c r="AA13" s="386"/>
+      <c r="AB13" s="387"/>
+      <c r="AC13" s="425"/>
+      <c r="AD13" s="374"/>
+      <c r="AE13" s="375"/>
+      <c r="AF13" s="375"/>
+      <c r="AG13" s="376"/>
+      <c r="AH13" s="383"/>
+      <c r="AI13" s="384"/>
+    </row>
+    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="195">
         <v>5</v>
       </c>
-      <c r="B14" s="391"/>
-      <c r="C14" s="392"/>
-      <c r="D14" s="392"/>
-      <c r="E14" s="392"/>
-      <c r="F14" s="393"/>
-      <c r="G14" s="388"/>
-      <c r="H14" s="389"/>
-      <c r="I14" s="390"/>
-      <c r="J14" s="388"/>
-      <c r="K14" s="389"/>
-      <c r="L14" s="389"/>
-      <c r="M14" s="389"/>
-      <c r="N14" s="389"/>
-      <c r="O14" s="389"/>
-      <c r="P14" s="390"/>
-      <c r="Q14" s="397"/>
-      <c r="R14" s="399"/>
-      <c r="S14" s="397"/>
-      <c r="T14" s="398"/>
-      <c r="U14" s="399"/>
-      <c r="V14" s="380"/>
-      <c r="W14" s="381"/>
-      <c r="X14" s="381"/>
-      <c r="Y14" s="381"/>
-      <c r="Z14" s="381"/>
-      <c r="AA14" s="381"/>
-      <c r="AB14" s="382"/>
-      <c r="AC14" s="420"/>
-      <c r="AD14" s="369"/>
-      <c r="AE14" s="370"/>
-      <c r="AF14" s="370"/>
-      <c r="AG14" s="371"/>
-      <c r="AH14" s="378"/>
-      <c r="AI14" s="379"/>
-    </row>
-    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="396"/>
+      <c r="C14" s="397"/>
+      <c r="D14" s="397"/>
+      <c r="E14" s="397"/>
+      <c r="F14" s="398"/>
+      <c r="G14" s="393"/>
+      <c r="H14" s="394"/>
+      <c r="I14" s="395"/>
+      <c r="J14" s="393"/>
+      <c r="K14" s="394"/>
+      <c r="L14" s="394"/>
+      <c r="M14" s="394"/>
+      <c r="N14" s="394"/>
+      <c r="O14" s="394"/>
+      <c r="P14" s="395"/>
+      <c r="Q14" s="402"/>
+      <c r="R14" s="404"/>
+      <c r="S14" s="402"/>
+      <c r="T14" s="403"/>
+      <c r="U14" s="404"/>
+      <c r="V14" s="385"/>
+      <c r="W14" s="386"/>
+      <c r="X14" s="386"/>
+      <c r="Y14" s="386"/>
+      <c r="Z14" s="386"/>
+      <c r="AA14" s="386"/>
+      <c r="AB14" s="387"/>
+      <c r="AC14" s="425"/>
+      <c r="AD14" s="374"/>
+      <c r="AE14" s="375"/>
+      <c r="AF14" s="375"/>
+      <c r="AG14" s="376"/>
+      <c r="AH14" s="383"/>
+      <c r="AI14" s="384"/>
+    </row>
+    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="195">
         <v>6</v>
       </c>
-      <c r="B15" s="391"/>
-      <c r="C15" s="392"/>
-      <c r="D15" s="392"/>
-      <c r="E15" s="392"/>
-      <c r="F15" s="393"/>
-      <c r="G15" s="388"/>
-      <c r="H15" s="389"/>
-      <c r="I15" s="390"/>
-      <c r="J15" s="388"/>
-      <c r="K15" s="389"/>
-      <c r="L15" s="389"/>
-      <c r="M15" s="389"/>
-      <c r="N15" s="389"/>
-      <c r="O15" s="389"/>
-      <c r="P15" s="390"/>
-      <c r="Q15" s="397"/>
-      <c r="R15" s="399"/>
-      <c r="S15" s="397"/>
-      <c r="T15" s="398"/>
-      <c r="U15" s="399"/>
-      <c r="V15" s="380"/>
-      <c r="W15" s="381"/>
-      <c r="X15" s="381"/>
-      <c r="Y15" s="381"/>
-      <c r="Z15" s="381"/>
-      <c r="AA15" s="381"/>
-      <c r="AB15" s="382"/>
-      <c r="AC15" s="420"/>
-      <c r="AD15" s="369"/>
-      <c r="AE15" s="370"/>
-      <c r="AF15" s="370"/>
-      <c r="AG15" s="371"/>
-      <c r="AH15" s="378"/>
-      <c r="AI15" s="379"/>
-    </row>
-    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="396"/>
+      <c r="C15" s="397"/>
+      <c r="D15" s="397"/>
+      <c r="E15" s="397"/>
+      <c r="F15" s="398"/>
+      <c r="G15" s="393"/>
+      <c r="H15" s="394"/>
+      <c r="I15" s="395"/>
+      <c r="J15" s="393"/>
+      <c r="K15" s="394"/>
+      <c r="L15" s="394"/>
+      <c r="M15" s="394"/>
+      <c r="N15" s="394"/>
+      <c r="O15" s="394"/>
+      <c r="P15" s="395"/>
+      <c r="Q15" s="402"/>
+      <c r="R15" s="404"/>
+      <c r="S15" s="402"/>
+      <c r="T15" s="403"/>
+      <c r="U15" s="404"/>
+      <c r="V15" s="385"/>
+      <c r="W15" s="386"/>
+      <c r="X15" s="386"/>
+      <c r="Y15" s="386"/>
+      <c r="Z15" s="386"/>
+      <c r="AA15" s="386"/>
+      <c r="AB15" s="387"/>
+      <c r="AC15" s="425"/>
+      <c r="AD15" s="374"/>
+      <c r="AE15" s="375"/>
+      <c r="AF15" s="375"/>
+      <c r="AG15" s="376"/>
+      <c r="AH15" s="383"/>
+      <c r="AI15" s="384"/>
+    </row>
+    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="196">
         <v>7</v>
       </c>
-      <c r="B16" s="391"/>
-      <c r="C16" s="392"/>
-      <c r="D16" s="392"/>
-      <c r="E16" s="392"/>
-      <c r="F16" s="393"/>
-      <c r="G16" s="388"/>
-      <c r="H16" s="389"/>
-      <c r="I16" s="390"/>
-      <c r="J16" s="388"/>
-      <c r="K16" s="389"/>
-      <c r="L16" s="389"/>
-      <c r="M16" s="389"/>
-      <c r="N16" s="389"/>
-      <c r="O16" s="389"/>
-      <c r="P16" s="390"/>
-      <c r="Q16" s="397"/>
-      <c r="R16" s="399"/>
-      <c r="S16" s="397"/>
-      <c r="T16" s="398"/>
-      <c r="U16" s="399"/>
-      <c r="V16" s="380"/>
-      <c r="W16" s="381"/>
-      <c r="X16" s="381"/>
-      <c r="Y16" s="381"/>
-      <c r="Z16" s="381"/>
-      <c r="AA16" s="381"/>
-      <c r="AB16" s="382"/>
-      <c r="AC16" s="420"/>
-      <c r="AD16" s="369"/>
-      <c r="AE16" s="370"/>
-      <c r="AF16" s="370"/>
-      <c r="AG16" s="371"/>
-      <c r="AH16" s="378"/>
-      <c r="AI16" s="379"/>
-    </row>
-    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="396"/>
+      <c r="C16" s="397"/>
+      <c r="D16" s="397"/>
+      <c r="E16" s="397"/>
+      <c r="F16" s="398"/>
+      <c r="G16" s="393"/>
+      <c r="H16" s="394"/>
+      <c r="I16" s="395"/>
+      <c r="J16" s="393"/>
+      <c r="K16" s="394"/>
+      <c r="L16" s="394"/>
+      <c r="M16" s="394"/>
+      <c r="N16" s="394"/>
+      <c r="O16" s="394"/>
+      <c r="P16" s="395"/>
+      <c r="Q16" s="402"/>
+      <c r="R16" s="404"/>
+      <c r="S16" s="402"/>
+      <c r="T16" s="403"/>
+      <c r="U16" s="404"/>
+      <c r="V16" s="385"/>
+      <c r="W16" s="386"/>
+      <c r="X16" s="386"/>
+      <c r="Y16" s="386"/>
+      <c r="Z16" s="386"/>
+      <c r="AA16" s="386"/>
+      <c r="AB16" s="387"/>
+      <c r="AC16" s="425"/>
+      <c r="AD16" s="374"/>
+      <c r="AE16" s="375"/>
+      <c r="AF16" s="375"/>
+      <c r="AG16" s="376"/>
+      <c r="AH16" s="383"/>
+      <c r="AI16" s="384"/>
+    </row>
+    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="196">
         <v>8</v>
       </c>
-      <c r="B17" s="391"/>
-      <c r="C17" s="392"/>
-      <c r="D17" s="392"/>
-      <c r="E17" s="392"/>
-      <c r="F17" s="393"/>
-      <c r="G17" s="388"/>
-      <c r="H17" s="389"/>
-      <c r="I17" s="390"/>
-      <c r="J17" s="388"/>
-      <c r="K17" s="389"/>
-      <c r="L17" s="389"/>
-      <c r="M17" s="389"/>
-      <c r="N17" s="389"/>
-      <c r="O17" s="389"/>
-      <c r="P17" s="390"/>
-      <c r="Q17" s="397"/>
-      <c r="R17" s="399"/>
-      <c r="S17" s="397"/>
-      <c r="T17" s="398"/>
-      <c r="U17" s="399"/>
-      <c r="V17" s="380"/>
-      <c r="W17" s="381"/>
-      <c r="X17" s="381"/>
-      <c r="Y17" s="381"/>
-      <c r="Z17" s="381"/>
-      <c r="AA17" s="381"/>
-      <c r="AB17" s="382"/>
-      <c r="AC17" s="420"/>
-      <c r="AD17" s="369"/>
-      <c r="AE17" s="370"/>
-      <c r="AF17" s="370"/>
-      <c r="AG17" s="371"/>
-      <c r="AH17" s="378"/>
-      <c r="AI17" s="379"/>
-    </row>
-    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="396"/>
+      <c r="C17" s="397"/>
+      <c r="D17" s="397"/>
+      <c r="E17" s="397"/>
+      <c r="F17" s="398"/>
+      <c r="G17" s="393"/>
+      <c r="H17" s="394"/>
+      <c r="I17" s="395"/>
+      <c r="J17" s="393"/>
+      <c r="K17" s="394"/>
+      <c r="L17" s="394"/>
+      <c r="M17" s="394"/>
+      <c r="N17" s="394"/>
+      <c r="O17" s="394"/>
+      <c r="P17" s="395"/>
+      <c r="Q17" s="402"/>
+      <c r="R17" s="404"/>
+      <c r="S17" s="402"/>
+      <c r="T17" s="403"/>
+      <c r="U17" s="404"/>
+      <c r="V17" s="385"/>
+      <c r="W17" s="386"/>
+      <c r="X17" s="386"/>
+      <c r="Y17" s="386"/>
+      <c r="Z17" s="386"/>
+      <c r="AA17" s="386"/>
+      <c r="AB17" s="387"/>
+      <c r="AC17" s="425"/>
+      <c r="AD17" s="374"/>
+      <c r="AE17" s="375"/>
+      <c r="AF17" s="375"/>
+      <c r="AG17" s="376"/>
+      <c r="AH17" s="383"/>
+      <c r="AI17" s="384"/>
+    </row>
+    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="197">
         <v>9</v>
       </c>
-      <c r="B18" s="414"/>
-      <c r="C18" s="415"/>
-      <c r="D18" s="415"/>
-      <c r="E18" s="415"/>
-      <c r="F18" s="416"/>
-      <c r="G18" s="411"/>
-      <c r="H18" s="412"/>
-      <c r="I18" s="413"/>
-      <c r="J18" s="411"/>
-      <c r="K18" s="412"/>
-      <c r="L18" s="412"/>
-      <c r="M18" s="412"/>
-      <c r="N18" s="412"/>
-      <c r="O18" s="412"/>
-      <c r="P18" s="413"/>
-      <c r="Q18" s="408"/>
-      <c r="R18" s="410"/>
-      <c r="S18" s="408"/>
-      <c r="T18" s="409"/>
-      <c r="U18" s="410"/>
-      <c r="V18" s="403"/>
-      <c r="W18" s="404"/>
-      <c r="X18" s="404"/>
-      <c r="Y18" s="404"/>
-      <c r="Z18" s="404"/>
-      <c r="AA18" s="404"/>
-      <c r="AB18" s="405"/>
-      <c r="AC18" s="421"/>
-      <c r="AD18" s="360"/>
-      <c r="AE18" s="361"/>
-      <c r="AF18" s="361"/>
-      <c r="AG18" s="362"/>
-      <c r="AH18" s="417"/>
-      <c r="AI18" s="418"/>
-    </row>
-    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="406"/>
-      <c r="B19" s="407"/>
-      <c r="C19" s="407"/>
-      <c r="D19" s="407"/>
-      <c r="E19" s="407"/>
-      <c r="F19" s="407"/>
+      <c r="B18" s="419"/>
+      <c r="C18" s="420"/>
+      <c r="D18" s="420"/>
+      <c r="E18" s="420"/>
+      <c r="F18" s="421"/>
+      <c r="G18" s="416"/>
+      <c r="H18" s="417"/>
+      <c r="I18" s="418"/>
+      <c r="J18" s="416"/>
+      <c r="K18" s="417"/>
+      <c r="L18" s="417"/>
+      <c r="M18" s="417"/>
+      <c r="N18" s="417"/>
+      <c r="O18" s="417"/>
+      <c r="P18" s="418"/>
+      <c r="Q18" s="413"/>
+      <c r="R18" s="415"/>
+      <c r="S18" s="413"/>
+      <c r="T18" s="414"/>
+      <c r="U18" s="415"/>
+      <c r="V18" s="408"/>
+      <c r="W18" s="409"/>
+      <c r="X18" s="409"/>
+      <c r="Y18" s="409"/>
+      <c r="Z18" s="409"/>
+      <c r="AA18" s="409"/>
+      <c r="AB18" s="410"/>
+      <c r="AC18" s="426"/>
+      <c r="AD18" s="365"/>
+      <c r="AE18" s="366"/>
+      <c r="AF18" s="366"/>
+      <c r="AG18" s="367"/>
+      <c r="AH18" s="422"/>
+      <c r="AI18" s="423"/>
+    </row>
+    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="411"/>
+      <c r="B19" s="412"/>
+      <c r="C19" s="412"/>
+      <c r="D19" s="412"/>
+      <c r="E19" s="412"/>
+      <c r="F19" s="412"/>
       <c r="G19" s="130"/>
       <c r="H19" s="130"/>
       <c r="I19" s="130"/>
@@ -12386,23 +13266,23 @@
       <c r="AA19" s="130"/>
       <c r="AB19" s="130"/>
       <c r="AC19" s="39"/>
-      <c r="AD19" s="402"/>
-      <c r="AE19" s="402"/>
-      <c r="AF19" s="402"/>
-      <c r="AG19" s="402"/>
-      <c r="AH19" s="402"/>
+      <c r="AD19" s="407"/>
+      <c r="AE19" s="407"/>
+      <c r="AF19" s="407"/>
+      <c r="AG19" s="407"/>
+      <c r="AH19" s="407"/>
       <c r="AI19" s="75"/>
       <c r="AJ19" s="34"/>
     </row>
-    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="400" t="s">
+    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="405" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="401"/>
-      <c r="C20" s="401"/>
-      <c r="D20" s="401"/>
-      <c r="E20" s="401"/>
-      <c r="F20" s="401"/>
+      <c r="B20" s="406"/>
+      <c r="C20" s="406"/>
+      <c r="D20" s="406"/>
+      <c r="E20" s="406"/>
+      <c r="F20" s="406"/>
       <c r="G20" s="154"/>
       <c r="H20" s="155"/>
       <c r="I20" s="155"/>
@@ -12441,7 +13321,7 @@
       <c r="AT20" s="74"/>
       <c r="AU20" s="74"/>
     </row>
-    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="142"/>
       <c r="B21" s="141"/>
       <c r="C21" s="143"/>
@@ -12487,7 +13367,7 @@
       <c r="AT21" s="74"/>
       <c r="AU21" s="74"/>
     </row>
-    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="142"/>
       <c r="B22" s="141"/>
       <c r="C22" s="141"/>
@@ -12533,7 +13413,7 @@
       <c r="AT22" s="74"/>
       <c r="AU22" s="74"/>
     </row>
-    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="142"/>
       <c r="B23" s="141"/>
       <c r="C23" s="141"/>
@@ -12579,7 +13459,7 @@
       <c r="AT23" s="74"/>
       <c r="AU23" s="74"/>
     </row>
-    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="142"/>
       <c r="B24" s="141"/>
       <c r="C24" s="141"/>
@@ -12625,7 +13505,7 @@
       <c r="AT24" s="74"/>
       <c r="AU24" s="74"/>
     </row>
-    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="142"/>
       <c r="B25" s="141"/>
       <c r="C25" s="141"/>
@@ -12671,7 +13551,7 @@
       <c r="AT25" s="74"/>
       <c r="AU25" s="74"/>
     </row>
-    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="142"/>
       <c r="B26" s="141"/>
       <c r="C26" s="141"/>
@@ -12717,7 +13597,7 @@
       <c r="AT26" s="74"/>
       <c r="AU26" s="74"/>
     </row>
-    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="142"/>
       <c r="B27" s="141"/>
       <c r="C27" s="141"/>
@@ -12763,7 +13643,7 @@
       <c r="AT27" s="74"/>
       <c r="AU27" s="74"/>
     </row>
-    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="142"/>
       <c r="B28" s="143"/>
       <c r="C28" s="143"/>
@@ -12809,7 +13689,7 @@
       <c r="AT28" s="74"/>
       <c r="AU28" s="74"/>
     </row>
-    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="142"/>
       <c r="B29" s="143"/>
       <c r="C29" s="141"/>
@@ -12855,7 +13735,7 @@
       <c r="AT29" s="74"/>
       <c r="AU29" s="74"/>
     </row>
-    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="149"/>
       <c r="B30" s="150"/>
       <c r="C30" s="151"/>
@@ -12901,7 +13781,7 @@
       <c r="AT30" s="74"/>
       <c r="AU30" s="74"/>
     </row>
-    <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="38"/>
       <c r="B31" s="136"/>
       <c r="C31" s="34"/>
@@ -13056,10 +13936,10 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"A,D"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH10:AI18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH10:AI18" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"昇,降"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13073,385 +13953,290 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CR34"/>
+  <dimension ref="A1:CR35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:K9"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="300" t="s">
+    <row r="1" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="305" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="256" t="str">
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="312" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
-      <c r="R1" s="314"/>
-      <c r="S1" s="302" t="str">
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="317" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="318"/>
+      <c r="Q1" s="318"/>
+      <c r="R1" s="319"/>
+      <c r="S1" s="307" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">外部インタフェース設計書(JSON)
 </v>
       </c>
-      <c r="T1" s="303"/>
-      <c r="U1" s="303"/>
-      <c r="V1" s="303"/>
-      <c r="W1" s="303"/>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
-      <c r="Z1" s="304"/>
-      <c r="AA1" s="300" t="s">
+      <c r="T1" s="308"/>
+      <c r="U1" s="308"/>
+      <c r="V1" s="308"/>
+      <c r="W1" s="308"/>
+      <c r="X1" s="308"/>
+      <c r="Y1" s="308"/>
+      <c r="Z1" s="309"/>
+      <c r="AA1" s="305" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="301"/>
-      <c r="AC1" s="279" t="str">
+      <c r="AB1" s="306"/>
+      <c r="AC1" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="280"/>
-      <c r="AE1" s="280"/>
-      <c r="AF1" s="281"/>
-      <c r="AG1" s="321">
+      <c r="AD1" s="285"/>
+      <c r="AE1" s="285"/>
+      <c r="AF1" s="286"/>
+      <c r="AG1" s="326">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="322"/>
-      <c r="AI1" s="323"/>
-    </row>
-    <row r="2" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="300" t="s">
+      <c r="AH1" s="327"/>
+      <c r="AI1" s="328"/>
+    </row>
+    <row r="2" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="305" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="311"/>
-      <c r="C2" s="311"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="256" t="str">
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
-      <c r="R2" s="317"/>
-      <c r="S2" s="305"/>
-      <c r="T2" s="306"/>
-      <c r="U2" s="306"/>
-      <c r="V2" s="306"/>
-      <c r="W2" s="306"/>
-      <c r="X2" s="306"/>
-      <c r="Y2" s="306"/>
-      <c r="Z2" s="307"/>
-      <c r="AA2" s="300" t="s">
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="260"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="321"/>
+      <c r="Q2" s="321"/>
+      <c r="R2" s="322"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="311"/>
+      <c r="U2" s="311"/>
+      <c r="V2" s="311"/>
+      <c r="W2" s="311"/>
+      <c r="X2" s="311"/>
+      <c r="Y2" s="311"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="305" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="301"/>
-      <c r="AC2" s="279" t="str">
+      <c r="AB2" s="306"/>
+      <c r="AC2" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="280"/>
-      <c r="AE2" s="280"/>
-      <c r="AF2" s="281"/>
-      <c r="AG2" s="321" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="285"/>
+      <c r="AE2" s="285"/>
+      <c r="AF2" s="286"/>
+      <c r="AG2" s="326">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="322"/>
-      <c r="AI2" s="323"/>
-    </row>
-    <row r="3" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="300" t="s">
+        <v>44825</v>
+      </c>
+      <c r="AH2" s="327"/>
+      <c r="AI2" s="328"/>
+    </row>
+    <row r="3" spans="1:96" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="305" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="256" t="str">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="306"/>
+      <c r="E3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="255"/>
-      <c r="O3" s="318"/>
-      <c r="P3" s="319"/>
-      <c r="Q3" s="319"/>
-      <c r="R3" s="320"/>
-      <c r="S3" s="308"/>
-      <c r="T3" s="309"/>
-      <c r="U3" s="309"/>
-      <c r="V3" s="309"/>
-      <c r="W3" s="309"/>
-      <c r="X3" s="309"/>
-      <c r="Y3" s="309"/>
-      <c r="Z3" s="310"/>
-      <c r="AA3" s="300"/>
-      <c r="AB3" s="301"/>
-      <c r="AC3" s="279" t="str">
+      <c r="F3" s="259"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="323"/>
+      <c r="P3" s="324"/>
+      <c r="Q3" s="324"/>
+      <c r="R3" s="325"/>
+      <c r="S3" s="313"/>
+      <c r="T3" s="314"/>
+      <c r="U3" s="314"/>
+      <c r="V3" s="314"/>
+      <c r="W3" s="314"/>
+      <c r="X3" s="314"/>
+      <c r="Y3" s="314"/>
+      <c r="Z3" s="315"/>
+      <c r="AA3" s="305"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="280"/>
-      <c r="AE3" s="280"/>
-      <c r="AF3" s="281"/>
-      <c r="AG3" s="321" t="str">
+      <c r="AD3" s="285"/>
+      <c r="AE3" s="285"/>
+      <c r="AF3" s="286"/>
+      <c r="AG3" s="326" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="322"/>
-      <c r="AI3" s="323"/>
-    </row>
-    <row r="4" spans="1:96" ht="12" customHeight="1"/>
-    <row r="5" spans="1:96" ht="15" customHeight="1">
-      <c r="A5" s="239" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-    </row>
-    <row r="6" spans="1:96" ht="15" customHeight="1">
-      <c r="A6" s="92"/>
+      <c r="AH3" s="327"/>
+      <c r="AI3" s="328"/>
+    </row>
+    <row r="4" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:96" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="479" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="239" t="s">
+        <v>110</v>
+      </c>
       <c r="B6" s="92"/>
       <c r="C6" s="92"/>
       <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
-      <c r="AC6" s="92"/>
-    </row>
-    <row r="7" spans="1:96" ht="15" customHeight="1">
-      <c r="A7" s="209" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="459" t="s">
+    </row>
+    <row r="7" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+    </row>
+    <row r="8" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="209" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="464" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="460"/>
-      <c r="D7" s="460"/>
-      <c r="E7" s="460"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="459" t="s">
+      <c r="C8" s="465"/>
+      <c r="D8" s="465"/>
+      <c r="E8" s="465"/>
+      <c r="F8" s="466"/>
+      <c r="G8" s="464" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="460"/>
-      <c r="I7" s="460"/>
-      <c r="J7" s="460"/>
-      <c r="K7" s="461"/>
-      <c r="L7" s="459" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" s="460"/>
-      <c r="N7" s="460"/>
-      <c r="O7" s="460"/>
-      <c r="P7" s="461"/>
-      <c r="Q7" s="210" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7" s="470" t="s">
-        <v>66</v>
-      </c>
-      <c r="S7" s="470"/>
-      <c r="T7" s="470"/>
-      <c r="U7" s="470"/>
-      <c r="V7" s="472" t="s">
-        <v>55</v>
-      </c>
-      <c r="W7" s="473"/>
-      <c r="X7" s="472" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y7" s="473"/>
-      <c r="Z7" s="459" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA7" s="460"/>
-      <c r="AB7" s="461"/>
-      <c r="AC7" s="459" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD7" s="460"/>
-      <c r="AE7" s="460"/>
-      <c r="AF7" s="460"/>
-      <c r="AG7" s="460"/>
-      <c r="AH7" s="460"/>
-      <c r="AI7" s="460"/>
-      <c r="AJ7" s="460"/>
-      <c r="AK7" s="461"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="75"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="75"/>
-      <c r="AR7" s="75"/>
-      <c r="AS7" s="75"/>
-      <c r="AT7" s="75"/>
-      <c r="AU7" s="75"/>
-      <c r="AV7" s="75"/>
-      <c r="AW7" s="75"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="75"/>
-      <c r="AZ7" s="75"/>
-      <c r="BA7" s="75"/>
-      <c r="BB7" s="75"/>
-      <c r="BC7" s="75"/>
-      <c r="BD7" s="75"/>
-      <c r="BE7" s="75"/>
-      <c r="BF7" s="75"/>
-      <c r="BG7" s="75"/>
-      <c r="BH7" s="75"/>
-      <c r="BI7" s="75"/>
-      <c r="BJ7" s="75"/>
-      <c r="BK7" s="75"/>
-      <c r="BL7" s="75"/>
-      <c r="BM7" s="75"/>
-      <c r="BN7" s="75"/>
-      <c r="BO7" s="75"/>
-      <c r="BP7" s="75"/>
-      <c r="BQ7" s="75"/>
-      <c r="BR7" s="75"/>
-      <c r="BS7" s="75"/>
-      <c r="BT7" s="75"/>
-      <c r="BU7" s="75"/>
-      <c r="BV7" s="75"/>
-      <c r="BW7" s="75"/>
-      <c r="BX7" s="75"/>
-      <c r="BY7" s="75"/>
-      <c r="BZ7" s="75"/>
-      <c r="CA7" s="75"/>
-      <c r="CB7" s="75"/>
-      <c r="CC7" s="202"/>
-      <c r="CD7" s="202"/>
-      <c r="CE7" s="202"/>
-      <c r="CF7" s="202"/>
-      <c r="CG7" s="202"/>
-      <c r="CH7" s="202"/>
-      <c r="CI7" s="202"/>
-      <c r="CJ7" s="202"/>
-      <c r="CK7" s="202"/>
-      <c r="CL7" s="202"/>
-      <c r="CM7" s="202"/>
-    </row>
-    <row r="8" spans="1:96" ht="15" customHeight="1">
-      <c r="A8" s="168">
-        <v>1</v>
-      </c>
-      <c r="B8" s="455" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="450"/>
-      <c r="D8" s="450"/>
-      <c r="E8" s="450"/>
-      <c r="F8" s="451"/>
-      <c r="G8" s="464" t="s">
-        <v>108</v>
       </c>
       <c r="H8" s="465"/>
       <c r="I8" s="465"/>
       <c r="J8" s="465"/>
-      <c r="K8" s="465"/>
-      <c r="L8" s="449"/>
-      <c r="M8" s="450"/>
-      <c r="N8" s="450"/>
-      <c r="O8" s="450"/>
-      <c r="P8" s="451"/>
-      <c r="Q8" s="211" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="471"/>
-      <c r="S8" s="471"/>
-      <c r="T8" s="471"/>
-      <c r="U8" s="471"/>
-      <c r="V8" s="446"/>
-      <c r="W8" s="447"/>
-      <c r="X8" s="456"/>
-      <c r="Y8" s="458"/>
-      <c r="Z8" s="449"/>
-      <c r="AA8" s="450"/>
-      <c r="AB8" s="451"/>
-      <c r="AC8" s="449"/>
-      <c r="AD8" s="450"/>
-      <c r="AE8" s="450"/>
-      <c r="AF8" s="450"/>
-      <c r="AG8" s="450"/>
-      <c r="AH8" s="450"/>
-      <c r="AI8" s="450"/>
-      <c r="AJ8" s="450"/>
-      <c r="AK8" s="451"/>
-      <c r="AL8" s="202"/>
-      <c r="AM8" s="202"/>
-      <c r="AN8" s="202"/>
-      <c r="AP8" s="202"/>
-      <c r="AQ8" s="202"/>
-      <c r="AR8" s="202"/>
-      <c r="AS8" s="202"/>
-      <c r="AT8" s="202"/>
-      <c r="AU8" s="202"/>
-      <c r="AV8" s="202"/>
-      <c r="AW8" s="202"/>
+      <c r="K8" s="466"/>
+      <c r="L8" s="464" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="465"/>
+      <c r="N8" s="465"/>
+      <c r="O8" s="465"/>
+      <c r="P8" s="466"/>
+      <c r="Q8" s="210" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" s="475" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="475"/>
+      <c r="T8" s="475"/>
+      <c r="U8" s="475"/>
+      <c r="V8" s="477" t="s">
+        <v>55</v>
+      </c>
+      <c r="W8" s="478"/>
+      <c r="X8" s="477" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="478"/>
+      <c r="Z8" s="464" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA8" s="465"/>
+      <c r="AB8" s="466"/>
+      <c r="AC8" s="464" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" s="465"/>
+      <c r="AE8" s="465"/>
+      <c r="AF8" s="465"/>
+      <c r="AG8" s="465"/>
+      <c r="AH8" s="465"/>
+      <c r="AI8" s="465"/>
+      <c r="AJ8" s="465"/>
+      <c r="AK8" s="466"/>
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="75"/>
+      <c r="AQ8" s="75"/>
+      <c r="AR8" s="75"/>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="75"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="75"/>
       <c r="AX8" s="75"/>
       <c r="AY8" s="75"/>
       <c r="AZ8" s="75"/>
@@ -13495,56 +14280,52 @@
       <c r="CL8" s="202"/>
       <c r="CM8" s="202"/>
     </row>
-    <row r="9" spans="1:96" ht="15" customHeight="1">
+    <row r="9" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="168">
-        <v>2</v>
-      </c>
-      <c r="B9" s="455" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="450"/>
-      <c r="D9" s="450"/>
-      <c r="E9" s="450"/>
-      <c r="F9" s="451"/>
-      <c r="G9" s="452" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="453"/>
-      <c r="I9" s="453"/>
-      <c r="J9" s="453"/>
-      <c r="K9" s="454"/>
-      <c r="L9" s="455"/>
-      <c r="M9" s="450"/>
-      <c r="N9" s="450"/>
-      <c r="O9" s="450"/>
-      <c r="P9" s="451"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="460" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="455"/>
+      <c r="D9" s="455"/>
+      <c r="E9" s="455"/>
+      <c r="F9" s="456"/>
+      <c r="G9" s="469" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="470"/>
+      <c r="I9" s="470"/>
+      <c r="J9" s="470"/>
+      <c r="K9" s="470"/>
+      <c r="L9" s="454"/>
+      <c r="M9" s="455"/>
+      <c r="N9" s="455"/>
+      <c r="O9" s="455"/>
+      <c r="P9" s="456"/>
       <c r="Q9" s="211" t="s">
-        <v>84</v>
-      </c>
-      <c r="R9" s="449" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="450"/>
-      <c r="T9" s="450"/>
-      <c r="U9" s="451"/>
-      <c r="V9" s="448">
-        <v>1</v>
-      </c>
-      <c r="W9" s="447"/>
-      <c r="X9" s="462"/>
+        <v>83</v>
+      </c>
+      <c r="R9" s="476"/>
+      <c r="S9" s="476"/>
+      <c r="T9" s="476"/>
+      <c r="U9" s="476"/>
+      <c r="V9" s="451"/>
+      <c r="W9" s="452"/>
+      <c r="X9" s="461"/>
       <c r="Y9" s="463"/>
-      <c r="Z9" s="449"/>
-      <c r="AA9" s="450"/>
-      <c r="AB9" s="451"/>
-      <c r="AC9" s="449"/>
-      <c r="AD9" s="450"/>
-      <c r="AE9" s="450"/>
-      <c r="AF9" s="450"/>
-      <c r="AG9" s="450"/>
-      <c r="AH9" s="450"/>
-      <c r="AI9" s="450"/>
-      <c r="AJ9" s="450"/>
-      <c r="AK9" s="451"/>
+      <c r="Z9" s="454"/>
+      <c r="AA9" s="455"/>
+      <c r="AB9" s="456"/>
+      <c r="AC9" s="454"/>
+      <c r="AD9" s="455"/>
+      <c r="AE9" s="455"/>
+      <c r="AF9" s="455"/>
+      <c r="AG9" s="455"/>
+      <c r="AH9" s="455"/>
+      <c r="AI9" s="455"/>
+      <c r="AJ9" s="455"/>
+      <c r="AK9" s="456"/>
       <c r="AL9" s="202"/>
       <c r="AM9" s="202"/>
       <c r="AN9" s="202"/>
@@ -13599,56 +14380,56 @@
       <c r="CL9" s="202"/>
       <c r="CM9" s="202"/>
     </row>
-    <row r="10" spans="1:96" ht="15" customHeight="1">
+    <row r="10" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="168">
-        <v>3</v>
-      </c>
-      <c r="B10" s="455" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="450"/>
-      <c r="D10" s="450"/>
-      <c r="E10" s="450"/>
-      <c r="F10" s="451"/>
-      <c r="G10" s="452" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="453"/>
-      <c r="I10" s="453"/>
-      <c r="J10" s="453"/>
-      <c r="K10" s="454"/>
-      <c r="L10" s="455"/>
-      <c r="M10" s="450"/>
-      <c r="N10" s="450"/>
-      <c r="O10" s="450"/>
-      <c r="P10" s="451"/>
+        <v>2</v>
+      </c>
+      <c r="B10" s="460" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="455"/>
+      <c r="D10" s="455"/>
+      <c r="E10" s="455"/>
+      <c r="F10" s="456"/>
+      <c r="G10" s="240" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="241"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="460"/>
+      <c r="M10" s="455"/>
+      <c r="N10" s="455"/>
+      <c r="O10" s="455"/>
+      <c r="P10" s="456"/>
       <c r="Q10" s="211" t="s">
-        <v>84</v>
-      </c>
-      <c r="R10" s="449" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="450"/>
-      <c r="T10" s="450"/>
-      <c r="U10" s="451"/>
-      <c r="V10" s="446" t="s">
-        <v>110</v>
-      </c>
-      <c r="W10" s="447"/>
-      <c r="X10" s="456"/>
-      <c r="Y10" s="458"/>
-      <c r="Z10" s="449"/>
-      <c r="AA10" s="450"/>
-      <c r="AB10" s="451"/>
-      <c r="AC10" s="449"/>
-      <c r="AD10" s="450"/>
-      <c r="AE10" s="450"/>
-      <c r="AF10" s="450"/>
-      <c r="AG10" s="450"/>
-      <c r="AH10" s="450"/>
-      <c r="AI10" s="450"/>
-      <c r="AJ10" s="450"/>
-      <c r="AK10" s="451"/>
+        <v>83</v>
+      </c>
+      <c r="R10" s="454" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="455"/>
+      <c r="T10" s="455"/>
+      <c r="U10" s="456"/>
+      <c r="V10" s="453">
+        <v>1</v>
+      </c>
+      <c r="W10" s="452"/>
+      <c r="X10" s="467"/>
+      <c r="Y10" s="468"/>
+      <c r="Z10" s="454"/>
+      <c r="AA10" s="455"/>
+      <c r="AB10" s="456"/>
+      <c r="AC10" s="454"/>
+      <c r="AD10" s="455"/>
+      <c r="AE10" s="455"/>
+      <c r="AF10" s="455"/>
+      <c r="AG10" s="455"/>
+      <c r="AH10" s="455"/>
+      <c r="AI10" s="455"/>
+      <c r="AJ10" s="455"/>
+      <c r="AK10" s="456"/>
       <c r="AL10" s="202"/>
       <c r="AM10" s="202"/>
       <c r="AN10" s="202"/>
@@ -13703,44 +14484,56 @@
       <c r="CL10" s="202"/>
       <c r="CM10" s="202"/>
     </row>
-    <row r="11" spans="1:96" ht="15" customHeight="1">
-      <c r="A11" s="168"/>
-      <c r="B11" s="455"/>
-      <c r="C11" s="450"/>
-      <c r="D11" s="450"/>
-      <c r="E11" s="450"/>
-      <c r="F11" s="451"/>
-      <c r="G11" s="452"/>
-      <c r="H11" s="453"/>
-      <c r="I11" s="453"/>
-      <c r="J11" s="453"/>
-      <c r="K11" s="454"/>
-      <c r="L11" s="455"/>
-      <c r="M11" s="450"/>
-      <c r="N11" s="450"/>
-      <c r="O11" s="450"/>
-      <c r="P11" s="451"/>
-      <c r="Q11" s="211"/>
-      <c r="R11" s="449"/>
-      <c r="S11" s="450"/>
-      <c r="T11" s="450"/>
-      <c r="U11" s="451"/>
-      <c r="V11" s="446"/>
-      <c r="W11" s="447"/>
-      <c r="X11" s="212"/>
-      <c r="Y11" s="213"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="203"/>
-      <c r="AB11" s="204"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="203"/>
-      <c r="AE11" s="203"/>
-      <c r="AF11" s="203"/>
-      <c r="AG11" s="203"/>
-      <c r="AH11" s="203"/>
-      <c r="AI11" s="203"/>
-      <c r="AJ11" s="203"/>
-      <c r="AK11" s="204"/>
+    <row r="11" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="168">
+        <v>3</v>
+      </c>
+      <c r="B11" s="460" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="455"/>
+      <c r="D11" s="455"/>
+      <c r="E11" s="455"/>
+      <c r="F11" s="456"/>
+      <c r="G11" s="244" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="241"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="241"/>
+      <c r="K11" s="242"/>
+      <c r="L11" s="460"/>
+      <c r="M11" s="455"/>
+      <c r="N11" s="455"/>
+      <c r="O11" s="455"/>
+      <c r="P11" s="456"/>
+      <c r="Q11" s="211" t="s">
+        <v>83</v>
+      </c>
+      <c r="R11" s="454" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="455"/>
+      <c r="T11" s="455"/>
+      <c r="U11" s="456"/>
+      <c r="V11" s="451" t="s">
+        <v>109</v>
+      </c>
+      <c r="W11" s="452"/>
+      <c r="X11" s="461"/>
+      <c r="Y11" s="463"/>
+      <c r="Z11" s="454"/>
+      <c r="AA11" s="455"/>
+      <c r="AB11" s="456"/>
+      <c r="AC11" s="454"/>
+      <c r="AD11" s="455"/>
+      <c r="AE11" s="455"/>
+      <c r="AF11" s="455"/>
+      <c r="AG11" s="455"/>
+      <c r="AH11" s="455"/>
+      <c r="AI11" s="455"/>
+      <c r="AJ11" s="455"/>
+      <c r="AK11" s="456"/>
       <c r="AL11" s="202"/>
       <c r="AM11" s="202"/>
       <c r="AN11" s="202"/>
@@ -13795,30 +14588,30 @@
       <c r="CL11" s="202"/>
       <c r="CM11" s="202"/>
     </row>
-    <row r="12" spans="1:96" ht="15" customHeight="1">
+    <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="168"/>
-      <c r="B12" s="449"/>
-      <c r="C12" s="450"/>
-      <c r="D12" s="450"/>
-      <c r="E12" s="450"/>
-      <c r="F12" s="451"/>
-      <c r="G12" s="456"/>
-      <c r="H12" s="457"/>
-      <c r="I12" s="457"/>
-      <c r="J12" s="457"/>
-      <c r="K12" s="458"/>
-      <c r="L12" s="456"/>
-      <c r="M12" s="457"/>
-      <c r="N12" s="457"/>
-      <c r="O12" s="457"/>
-      <c r="P12" s="458"/>
+      <c r="B12" s="460"/>
+      <c r="C12" s="455"/>
+      <c r="D12" s="455"/>
+      <c r="E12" s="455"/>
+      <c r="F12" s="456"/>
+      <c r="G12" s="457"/>
+      <c r="H12" s="458"/>
+      <c r="I12" s="458"/>
+      <c r="J12" s="458"/>
+      <c r="K12" s="459"/>
+      <c r="L12" s="460"/>
+      <c r="M12" s="455"/>
+      <c r="N12" s="455"/>
+      <c r="O12" s="455"/>
+      <c r="P12" s="456"/>
       <c r="Q12" s="211"/>
-      <c r="R12" s="449"/>
-      <c r="S12" s="450"/>
-      <c r="T12" s="450"/>
-      <c r="U12" s="451"/>
-      <c r="V12" s="448"/>
-      <c r="W12" s="447"/>
+      <c r="R12" s="454"/>
+      <c r="S12" s="455"/>
+      <c r="T12" s="455"/>
+      <c r="U12" s="456"/>
+      <c r="V12" s="451"/>
+      <c r="W12" s="452"/>
       <c r="X12" s="212"/>
       <c r="Y12" s="213"/>
       <c r="Z12" s="62"/>
@@ -13887,92 +14680,133 @@
       <c r="CL12" s="202"/>
       <c r="CM12" s="202"/>
     </row>
-    <row r="13" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="214"/>
-      <c r="J13" s="214"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="214"/>
-      <c r="P13" s="214"/>
-      <c r="Q13" s="214"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="215"/>
-      <c r="T13" s="215"/>
-      <c r="U13" s="215"/>
-      <c r="V13" s="216"/>
-      <c r="W13" s="216"/>
-      <c r="X13" s="217"/>
-      <c r="Y13" s="217"/>
-      <c r="Z13" s="214"/>
-      <c r="AA13" s="214"/>
-      <c r="AB13" s="214"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="214"/>
-      <c r="AH13" s="79"/>
-      <c r="CD13" s="81"/>
-      <c r="CE13" s="81"/>
-      <c r="CF13" s="81"/>
-      <c r="CG13" s="81"/>
-      <c r="CH13" s="82"/>
-      <c r="CI13" s="82"/>
-      <c r="CJ13" s="82"/>
-      <c r="CK13" s="82"/>
-      <c r="CL13" s="82"/>
-      <c r="CM13" s="82"/>
-      <c r="CN13" s="82"/>
-      <c r="CO13" s="82"/>
-      <c r="CP13" s="82"/>
-      <c r="CQ13" s="82"/>
-      <c r="CR13" s="82"/>
-    </row>
-    <row r="14" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="218"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="218"/>
-      <c r="K14" s="218"/>
-      <c r="L14" s="218"/>
-      <c r="M14" s="218"/>
-      <c r="N14" s="218"/>
-      <c r="O14" s="218"/>
-      <c r="P14" s="218"/>
-      <c r="Q14" s="218"/>
-      <c r="R14" s="218"/>
-      <c r="S14" s="219"/>
-      <c r="T14" s="219"/>
-      <c r="U14" s="219"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="220"/>
-      <c r="Y14" s="220"/>
-      <c r="Z14" s="218"/>
-      <c r="AA14" s="218"/>
-      <c r="AB14" s="218"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="218"/>
-      <c r="AH14" s="82"/>
+    <row r="13" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="168"/>
+      <c r="B13" s="454"/>
+      <c r="C13" s="455"/>
+      <c r="D13" s="455"/>
+      <c r="E13" s="455"/>
+      <c r="F13" s="456"/>
+      <c r="G13" s="461"/>
+      <c r="H13" s="462"/>
+      <c r="I13" s="462"/>
+      <c r="J13" s="462"/>
+      <c r="K13" s="463"/>
+      <c r="L13" s="461"/>
+      <c r="M13" s="462"/>
+      <c r="N13" s="462"/>
+      <c r="O13" s="462"/>
+      <c r="P13" s="463"/>
+      <c r="Q13" s="211"/>
+      <c r="R13" s="454"/>
+      <c r="S13" s="455"/>
+      <c r="T13" s="455"/>
+      <c r="U13" s="456"/>
+      <c r="V13" s="453"/>
+      <c r="W13" s="452"/>
+      <c r="X13" s="212"/>
+      <c r="Y13" s="213"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="203"/>
+      <c r="AB13" s="204"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="203"/>
+      <c r="AE13" s="203"/>
+      <c r="AF13" s="203"/>
+      <c r="AG13" s="203"/>
+      <c r="AH13" s="203"/>
+      <c r="AI13" s="203"/>
+      <c r="AJ13" s="203"/>
+      <c r="AK13" s="204"/>
+      <c r="AL13" s="202"/>
+      <c r="AM13" s="202"/>
+      <c r="AN13" s="202"/>
+      <c r="AP13" s="202"/>
+      <c r="AQ13" s="202"/>
+      <c r="AR13" s="202"/>
+      <c r="AS13" s="202"/>
+      <c r="AT13" s="202"/>
+      <c r="AU13" s="202"/>
+      <c r="AV13" s="202"/>
+      <c r="AW13" s="202"/>
+      <c r="AX13" s="75"/>
+      <c r="AY13" s="75"/>
+      <c r="AZ13" s="75"/>
+      <c r="BA13" s="75"/>
+      <c r="BB13" s="75"/>
+      <c r="BC13" s="75"/>
+      <c r="BD13" s="75"/>
+      <c r="BE13" s="75"/>
+      <c r="BF13" s="75"/>
+      <c r="BG13" s="75"/>
+      <c r="BH13" s="75"/>
+      <c r="BI13" s="75"/>
+      <c r="BJ13" s="75"/>
+      <c r="BK13" s="75"/>
+      <c r="BL13" s="75"/>
+      <c r="BM13" s="75"/>
+      <c r="BN13" s="75"/>
+      <c r="BO13" s="75"/>
+      <c r="BP13" s="75"/>
+      <c r="BQ13" s="75"/>
+      <c r="BR13" s="75"/>
+      <c r="BS13" s="75"/>
+      <c r="BT13" s="75"/>
+      <c r="BU13" s="75"/>
+      <c r="BV13" s="75"/>
+      <c r="BW13" s="75"/>
+      <c r="BX13" s="75"/>
+      <c r="BY13" s="75"/>
+      <c r="BZ13" s="75"/>
+      <c r="CA13" s="75"/>
+      <c r="CB13" s="75"/>
+      <c r="CC13" s="202"/>
+      <c r="CD13" s="202"/>
+      <c r="CE13" s="202"/>
+      <c r="CF13" s="202"/>
+      <c r="CG13" s="202"/>
+      <c r="CH13" s="202"/>
+      <c r="CI13" s="202"/>
+      <c r="CJ13" s="202"/>
+      <c r="CK13" s="202"/>
+      <c r="CL13" s="202"/>
+      <c r="CM13" s="202"/>
+    </row>
+    <row r="14" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="214"/>
+      <c r="I14" s="214"/>
+      <c r="J14" s="214"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214"/>
+      <c r="N14" s="214"/>
+      <c r="O14" s="214"/>
+      <c r="P14" s="214"/>
+      <c r="Q14" s="214"/>
+      <c r="R14" s="214"/>
+      <c r="S14" s="215"/>
+      <c r="T14" s="215"/>
+      <c r="U14" s="215"/>
+      <c r="V14" s="216"/>
+      <c r="W14" s="216"/>
+      <c r="X14" s="217"/>
+      <c r="Y14" s="217"/>
+      <c r="Z14" s="214"/>
+      <c r="AA14" s="214"/>
+      <c r="AB14" s="214"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="214"/>
+      <c r="AH14" s="79"/>
       <c r="CD14" s="81"/>
       <c r="CE14" s="81"/>
       <c r="CF14" s="81"/>
@@ -13989,7 +14823,7 @@
       <c r="CQ14" s="82"/>
       <c r="CR14" s="82"/>
     </row>
-    <row r="15" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="82"/>
       <c r="B15" s="82"/>
       <c r="C15" s="82"/>
@@ -14040,20 +14874,20 @@
       <c r="CQ15" s="82"/>
       <c r="CR15" s="82"/>
     </row>
-    <row r="16" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="221"/>
-      <c r="B16" s="221"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="222"/>
-      <c r="J16" s="222"/>
-      <c r="K16" s="222"/>
-      <c r="L16" s="222"/>
-      <c r="M16" s="222"/>
+    <row r="16" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="218"/>
       <c r="N16" s="218"/>
       <c r="O16" s="218"/>
       <c r="P16" s="218"/>
@@ -14091,143 +14925,155 @@
       <c r="CQ16" s="82"/>
       <c r="CR16" s="82"/>
     </row>
-    <row r="17" spans="1:96" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="466" t="s">
+    <row r="17" spans="1:96" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="221"/>
+      <c r="B17" s="221"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="222"/>
+      <c r="I17" s="222"/>
+      <c r="J17" s="222"/>
+      <c r="K17" s="222"/>
+      <c r="L17" s="222"/>
+      <c r="M17" s="222"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="218"/>
+      <c r="P17" s="218"/>
+      <c r="Q17" s="218"/>
+      <c r="R17" s="218"/>
+      <c r="S17" s="219"/>
+      <c r="T17" s="219"/>
+      <c r="U17" s="219"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="220"/>
+      <c r="Y17" s="220"/>
+      <c r="Z17" s="218"/>
+      <c r="AA17" s="218"/>
+      <c r="AB17" s="218"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="82"/>
+      <c r="AF17" s="82"/>
+      <c r="AG17" s="218"/>
+      <c r="AH17" s="82"/>
+      <c r="CD17" s="81"/>
+      <c r="CE17" s="81"/>
+      <c r="CF17" s="81"/>
+      <c r="CG17" s="81"/>
+      <c r="CH17" s="82"/>
+      <c r="CI17" s="82"/>
+      <c r="CJ17" s="82"/>
+      <c r="CK17" s="82"/>
+      <c r="CL17" s="82"/>
+      <c r="CM17" s="82"/>
+      <c r="CN17" s="82"/>
+      <c r="CO17" s="82"/>
+      <c r="CP17" s="82"/>
+      <c r="CQ17" s="82"/>
+      <c r="CR17" s="82"/>
+    </row>
+    <row r="18" spans="1:96" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="466"/>
-      <c r="C17" s="466"/>
-      <c r="D17" s="466"/>
-      <c r="E17" s="466"/>
-      <c r="F17" s="466"/>
-      <c r="G17" s="466"/>
-      <c r="H17" s="466"/>
-      <c r="I17" s="466"/>
-      <c r="J17" s="466"/>
-      <c r="K17" s="466"/>
-      <c r="L17" s="466"/>
-      <c r="M17" s="466"/>
-      <c r="N17" s="466"/>
-      <c r="O17" s="466"/>
-      <c r="P17" s="466"/>
-      <c r="Q17" s="466"/>
-      <c r="R17" s="466"/>
-      <c r="S17" s="466"/>
-      <c r="T17" s="466"/>
-      <c r="U17" s="466"/>
-      <c r="V17" s="466"/>
-      <c r="W17" s="466"/>
-      <c r="X17" s="466"/>
-      <c r="Y17" s="467" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z17" s="468"/>
-      <c r="AA17" s="468"/>
-      <c r="AB17" s="468"/>
-      <c r="AC17" s="468"/>
-      <c r="AD17" s="468"/>
-      <c r="AE17" s="468"/>
-      <c r="AF17" s="468"/>
-      <c r="AG17" s="468"/>
-      <c r="AH17" s="468"/>
-      <c r="AI17" s="468"/>
-      <c r="AJ17" s="468"/>
-      <c r="AK17" s="469"/>
-    </row>
-    <row r="18" spans="1:96" ht="15" customHeight="1">
-      <c r="A18" s="223"/>
-      <c r="B18" s="224"/>
-      <c r="C18" s="224"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="224"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="224"/>
-      <c r="H18" s="224"/>
-      <c r="I18" s="224"/>
-      <c r="J18" s="224"/>
-      <c r="K18" s="224"/>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="224"/>
-      <c r="O18" s="224"/>
-      <c r="P18" s="224"/>
-      <c r="Q18" s="224"/>
-      <c r="R18" s="224"/>
-      <c r="S18" s="224"/>
-      <c r="T18" s="224"/>
-      <c r="U18" s="224"/>
-      <c r="V18" s="224"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="225"/>
-      <c r="Z18" s="226"/>
-      <c r="AA18" s="226"/>
-      <c r="AB18" s="226"/>
-      <c r="AC18" s="226"/>
-      <c r="AD18" s="226"/>
-      <c r="AE18" s="226"/>
-      <c r="AF18" s="226"/>
-      <c r="AG18" s="226"/>
-      <c r="AH18" s="226"/>
-      <c r="AI18" s="226"/>
-      <c r="AJ18" s="226"/>
-      <c r="AK18" s="227"/>
-      <c r="CD18" s="75"/>
-      <c r="CE18" s="75"/>
-      <c r="CF18" s="75"/>
-      <c r="CG18" s="75"/>
-      <c r="CH18" s="202"/>
-      <c r="CI18" s="202"/>
-      <c r="CJ18" s="202"/>
-      <c r="CK18" s="202"/>
-      <c r="CL18" s="202"/>
-      <c r="CM18" s="202"/>
-      <c r="CN18" s="202"/>
-      <c r="CO18" s="202"/>
-      <c r="CP18" s="202"/>
-      <c r="CQ18" s="202"/>
-      <c r="CR18" s="202"/>
-    </row>
-    <row r="19" spans="1:96" ht="15" customHeight="1">
-      <c r="A19" s="228"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="202"/>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="229"/>
-      <c r="Z19" s="188"/>
-      <c r="AA19" s="188"/>
-      <c r="AB19" s="188"/>
-      <c r="AC19" s="188"/>
-      <c r="AD19" s="188"/>
-      <c r="AE19" s="188"/>
-      <c r="AF19" s="188"/>
-      <c r="AG19" s="188"/>
-      <c r="AH19" s="188"/>
-      <c r="AI19" s="188"/>
-      <c r="AJ19" s="188"/>
-      <c r="AK19" s="230"/>
-    </row>
-    <row r="20" spans="1:96" ht="15" customHeight="1">
+      <c r="B18" s="471"/>
+      <c r="C18" s="471"/>
+      <c r="D18" s="471"/>
+      <c r="E18" s="471"/>
+      <c r="F18" s="471"/>
+      <c r="G18" s="471"/>
+      <c r="H18" s="471"/>
+      <c r="I18" s="471"/>
+      <c r="J18" s="471"/>
+      <c r="K18" s="471"/>
+      <c r="L18" s="471"/>
+      <c r="M18" s="471"/>
+      <c r="N18" s="471"/>
+      <c r="O18" s="471"/>
+      <c r="P18" s="471"/>
+      <c r="Q18" s="471"/>
+      <c r="R18" s="471"/>
+      <c r="S18" s="471"/>
+      <c r="T18" s="471"/>
+      <c r="U18" s="471"/>
+      <c r="V18" s="471"/>
+      <c r="W18" s="471"/>
+      <c r="X18" s="471"/>
+      <c r="Y18" s="472" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z18" s="473"/>
+      <c r="AA18" s="473"/>
+      <c r="AB18" s="473"/>
+      <c r="AC18" s="473"/>
+      <c r="AD18" s="473"/>
+      <c r="AE18" s="473"/>
+      <c r="AF18" s="473"/>
+      <c r="AG18" s="473"/>
+      <c r="AH18" s="473"/>
+      <c r="AI18" s="473"/>
+      <c r="AJ18" s="473"/>
+      <c r="AK18" s="474"/>
+    </row>
+    <row r="19" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="223"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="224"/>
+      <c r="P19" s="224"/>
+      <c r="Q19" s="224"/>
+      <c r="R19" s="224"/>
+      <c r="S19" s="224"/>
+      <c r="T19" s="224"/>
+      <c r="U19" s="224"/>
+      <c r="V19" s="224"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="225"/>
+      <c r="Z19" s="226"/>
+      <c r="AA19" s="226"/>
+      <c r="AB19" s="226"/>
+      <c r="AC19" s="226"/>
+      <c r="AD19" s="226"/>
+      <c r="AE19" s="226"/>
+      <c r="AF19" s="226"/>
+      <c r="AG19" s="226"/>
+      <c r="AH19" s="226"/>
+      <c r="AI19" s="226"/>
+      <c r="AJ19" s="226"/>
+      <c r="AK19" s="227"/>
+      <c r="CD19" s="75"/>
+      <c r="CE19" s="75"/>
+      <c r="CF19" s="75"/>
+      <c r="CG19" s="75"/>
+      <c r="CH19" s="202"/>
+      <c r="CI19" s="202"/>
+      <c r="CJ19" s="202"/>
+      <c r="CK19" s="202"/>
+      <c r="CL19" s="202"/>
+      <c r="CM19" s="202"/>
+      <c r="CN19" s="202"/>
+      <c r="CO19" s="202"/>
+      <c r="CP19" s="202"/>
+      <c r="CQ19" s="202"/>
+      <c r="CR19" s="202"/>
+    </row>
+    <row r="20" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="228"/>
       <c r="B20" s="68"/>
       <c r="C20" s="68"/>
@@ -14266,7 +15112,7 @@
       <c r="AJ20" s="188"/>
       <c r="AK20" s="230"/>
     </row>
-    <row r="21" spans="1:96" ht="15" customHeight="1">
+    <row r="21" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="228"/>
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
@@ -14305,7 +15151,7 @@
       <c r="AJ21" s="188"/>
       <c r="AK21" s="230"/>
     </row>
-    <row r="22" spans="1:96" ht="15" customHeight="1">
+    <row r="22" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="228"/>
       <c r="B22" s="68"/>
       <c r="C22" s="68"/>
@@ -14344,7 +15190,7 @@
       <c r="AJ22" s="188"/>
       <c r="AK22" s="230"/>
     </row>
-    <row r="23" spans="1:96" ht="15" customHeight="1">
+    <row r="23" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="228"/>
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
@@ -14383,7 +15229,7 @@
       <c r="AJ23" s="188"/>
       <c r="AK23" s="230"/>
     </row>
-    <row r="24" spans="1:96" ht="15" customHeight="1">
+    <row r="24" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="228"/>
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
@@ -14422,7 +15268,7 @@
       <c r="AJ24" s="188"/>
       <c r="AK24" s="230"/>
     </row>
-    <row r="25" spans="1:96" ht="15" customHeight="1">
+    <row r="25" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="228"/>
       <c r="B25" s="68"/>
       <c r="C25" s="68"/>
@@ -14461,7 +15307,7 @@
       <c r="AJ25" s="188"/>
       <c r="AK25" s="230"/>
     </row>
-    <row r="26" spans="1:96" ht="15" customHeight="1">
+    <row r="26" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="228"/>
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
@@ -14500,7 +15346,7 @@
       <c r="AJ26" s="188"/>
       <c r="AK26" s="230"/>
     </row>
-    <row r="27" spans="1:96" ht="15" customHeight="1">
+    <row r="27" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="228"/>
       <c r="B27" s="68"/>
       <c r="C27" s="68"/>
@@ -14539,7 +15385,7 @@
       <c r="AJ27" s="188"/>
       <c r="AK27" s="230"/>
     </row>
-    <row r="28" spans="1:96" ht="15" customHeight="1">
+    <row r="28" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="228"/>
       <c r="B28" s="68"/>
       <c r="C28" s="68"/>
@@ -14578,7 +15424,7 @@
       <c r="AJ28" s="188"/>
       <c r="AK28" s="230"/>
     </row>
-    <row r="29" spans="1:96" ht="15" customHeight="1">
+    <row r="29" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="228"/>
       <c r="B29" s="68"/>
       <c r="C29" s="68"/>
@@ -14617,7 +15463,7 @@
       <c r="AJ29" s="188"/>
       <c r="AK29" s="230"/>
     </row>
-    <row r="30" spans="1:96" ht="15" customHeight="1">
+    <row r="30" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="228"/>
       <c r="B30" s="68"/>
       <c r="C30" s="68"/>
@@ -14656,7 +15502,7 @@
       <c r="AJ30" s="188"/>
       <c r="AK30" s="230"/>
     </row>
-    <row r="31" spans="1:96" ht="15" customHeight="1">
+    <row r="31" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="228"/>
       <c r="B31" s="68"/>
       <c r="C31" s="68"/>
@@ -14695,7 +15541,7 @@
       <c r="AJ31" s="188"/>
       <c r="AK31" s="230"/>
     </row>
-    <row r="32" spans="1:96" ht="15" customHeight="1">
+    <row r="32" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="228"/>
       <c r="B32" s="68"/>
       <c r="C32" s="68"/>
@@ -14734,67 +15580,104 @@
       <c r="AJ32" s="188"/>
       <c r="AK32" s="230"/>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1">
-      <c r="A33" s="231"/>
-      <c r="B33" s="232"/>
-      <c r="C33" s="232"/>
-      <c r="D33" s="232"/>
-      <c r="E33" s="232"/>
-      <c r="F33" s="232"/>
-      <c r="G33" s="232"/>
-      <c r="H33" s="232"/>
-      <c r="I33" s="232"/>
-      <c r="J33" s="232"/>
-      <c r="K33" s="232"/>
-      <c r="L33" s="232"/>
-      <c r="M33" s="232"/>
-      <c r="N33" s="232"/>
-      <c r="O33" s="232"/>
-      <c r="P33" s="232"/>
-      <c r="Q33" s="232"/>
-      <c r="R33" s="232"/>
-      <c r="S33" s="232"/>
-      <c r="T33" s="232"/>
-      <c r="U33" s="232"/>
-      <c r="V33" s="232"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="233"/>
-      <c r="Z33" s="234"/>
-      <c r="AA33" s="234"/>
-      <c r="AB33" s="234"/>
-      <c r="AC33" s="234"/>
-      <c r="AD33" s="234"/>
-      <c r="AE33" s="234"/>
-      <c r="AF33" s="234"/>
-      <c r="AG33" s="234"/>
-      <c r="AH33" s="234"/>
-      <c r="AI33" s="234"/>
-      <c r="AJ33" s="234"/>
-      <c r="AK33" s="235"/>
-    </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1">
-      <c r="D34" s="88"/>
-      <c r="X34" s="88"/>
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="228"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="202"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="229"/>
+      <c r="Z33" s="188"/>
+      <c r="AA33" s="188"/>
+      <c r="AB33" s="188"/>
+      <c r="AC33" s="188"/>
+      <c r="AD33" s="188"/>
+      <c r="AE33" s="188"/>
+      <c r="AF33" s="188"/>
+      <c r="AG33" s="188"/>
+      <c r="AH33" s="188"/>
+      <c r="AI33" s="188"/>
+      <c r="AJ33" s="188"/>
+      <c r="AK33" s="230"/>
+    </row>
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="231"/>
+      <c r="B34" s="232"/>
+      <c r="C34" s="232"/>
+      <c r="D34" s="232"/>
+      <c r="E34" s="232"/>
+      <c r="F34" s="232"/>
+      <c r="G34" s="232"/>
+      <c r="H34" s="232"/>
+      <c r="I34" s="232"/>
+      <c r="J34" s="232"/>
+      <c r="K34" s="232"/>
+      <c r="L34" s="232"/>
+      <c r="M34" s="232"/>
+      <c r="N34" s="232"/>
+      <c r="O34" s="232"/>
+      <c r="P34" s="232"/>
+      <c r="Q34" s="232"/>
+      <c r="R34" s="232"/>
+      <c r="S34" s="232"/>
+      <c r="T34" s="232"/>
+      <c r="U34" s="232"/>
+      <c r="V34" s="232"/>
+      <c r="W34" s="77"/>
+      <c r="X34" s="78"/>
+      <c r="Y34" s="233"/>
+      <c r="Z34" s="234"/>
+      <c r="AA34" s="234"/>
+      <c r="AB34" s="234"/>
+      <c r="AC34" s="234"/>
+      <c r="AD34" s="234"/>
+      <c r="AE34" s="234"/>
+      <c r="AF34" s="234"/>
+      <c r="AG34" s="234"/>
+      <c r="AH34" s="234"/>
+      <c r="AI34" s="234"/>
+      <c r="AJ34" s="234"/>
+      <c r="AK34" s="235"/>
+    </row>
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="88"/>
+      <c r="X35" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A17:X17"/>
-    <mergeCell ref="Y17:AK17"/>
-    <mergeCell ref="R7:U7"/>
+  <mergeCells count="59">
+    <mergeCell ref="A18:X18"/>
+    <mergeCell ref="Y18:AK18"/>
     <mergeCell ref="R8:U8"/>
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="R10:U10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z10:AB10"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AG1:AI1"/>
@@ -14810,43 +15693,43 @@
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:K7"/>
     <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="G9:K9"/>
     <mergeCell ref="L8:P8"/>
+    <mergeCell ref="L9:P9"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="AC7:AK7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="AC8:AK8"/>
     <mergeCell ref="AC9:AK9"/>
     <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC11:AK11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="Z9:AB9"/>
     <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
     <mergeCell ref="L10:P10"/>
     <mergeCell ref="V10:W10"/>
     <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="G12:K12"/>
     <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q8:Q12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:Q13" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"○"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8:R12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R9:R13" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>データ型</formula1>
     </dataValidation>
   </dataValidations>
@@ -14857,14 +15740,14 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="15" max="37" man="1"/>
+    <brk id="16" max="37" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -14872,110 +15755,110 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" style="12" customWidth="1"/>
     <col min="2" max="2" width="35.83203125" style="12" customWidth="1"/>
     <col min="3" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="61" t="s">
         <v>67</v>
       </c>
       <c r="B1" s="132"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="133" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="132"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="134" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="132"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="133" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="132"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="133" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="132"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="133" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="132"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="133" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="132"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="134" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="56"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="134" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="132"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="134" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="132"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="134" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="132"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="134" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="132"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="134" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="132"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="134" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="132"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="134" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="132"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="132"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="57" t="s">
         <v>58</v>
       </c>
